--- a/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF265B-6D2F-4CF9-A72A-5250BB44577C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B301BFC-6472-4749-94FF-F4631F4E7013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="467">
   <si>
     <t>Student Details</t>
   </si>
@@ -1431,6 +1431,12 @@
   </si>
   <si>
     <t>HA10</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>田嘉喜</t>
   </si>
 </sst>
 </file>
@@ -1935,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,13 +3356,13 @@
         <v>16</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="D45" s="10">
-        <v>12017245779</v>
+        <v>12016246281</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -3370,6 +3376,37 @@
       <c r="O45" s="11"/>
       <c r="P45" s="12" t="e">
         <f t="shared" ref="P45" si="1">AVERAGE(F45:O45)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D46" s="10">
+        <v>12017245779</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="12" t="e">
+        <f t="shared" ref="P46" si="2">AVERAGE(F46:O46)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924BA010-FA38-4D51-B93B-469A5CFE1135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80326F98-E3F7-4D22-9867-60DCFC6BBB42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="467">
   <si>
     <t>Student Details</t>
   </si>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2052,8 +2052,8 @@
       <c r="C3" s="14"/>
       <c r="D3" s="17"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
+      <c r="F3" s="3">
+        <v>44094</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
@@ -2100,7 +2100,9 @@
       <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11">
+        <v>6</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2110,9 +2112,9 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="12" t="e">
+      <c r="P4" s="12">
         <f t="shared" ref="P4:P44" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2131,7 +2133,9 @@
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2141,9 +2145,9 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P5" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2162,7 +2166,9 @@
       <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>5</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2172,9 +2178,9 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P6" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2193,7 +2199,9 @@
       <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -2203,9 +2211,9 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P7" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2224,7 +2232,9 @@
       <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -2234,9 +2244,9 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P8" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2255,7 +2265,9 @@
       <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2265,9 +2277,9 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2286,7 +2298,9 @@
       <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2296,9 +2310,9 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P10" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2317,7 +2331,9 @@
       <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2327,9 +2343,9 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P11" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2348,7 +2364,9 @@
       <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <v>5</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2358,9 +2376,9 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P12" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2379,7 +2397,9 @@
       <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>5</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2389,9 +2409,9 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P13" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2410,7 +2430,9 @@
       <c r="E14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -2420,9 +2442,9 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P14" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2441,7 +2463,9 @@
       <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -2451,9 +2475,9 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P15" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2472,7 +2496,9 @@
       <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11">
+        <v>10</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -2482,9 +2508,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P16" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2503,7 +2529,9 @@
       <c r="E17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>5</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2513,9 +2541,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P17" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2534,7 +2562,9 @@
       <c r="E18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2544,9 +2574,9 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P18" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2565,7 +2595,9 @@
       <c r="E19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2575,9 +2607,9 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P19" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2596,7 +2628,9 @@
       <c r="E20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11">
+        <v>5</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2606,9 +2640,9 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P20" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2627,7 +2661,9 @@
       <c r="E21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11">
+        <v>5</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -2637,9 +2673,9 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P21" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2658,7 +2694,9 @@
       <c r="E22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11">
+        <v>5</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2668,9 +2706,9 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P22" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2689,7 +2727,9 @@
       <c r="E23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="11">
+        <v>4</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2699,9 +2739,9 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P23" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2720,7 +2760,9 @@
       <c r="E24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>5</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2730,9 +2772,9 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P24" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2751,7 +2793,9 @@
       <c r="E25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="11">
+        <v>5</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2761,9 +2805,9 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P25" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2782,7 +2826,9 @@
       <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11">
+        <v>5</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -2792,9 +2838,9 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P26" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2813,7 +2859,9 @@
       <c r="E27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="11">
+        <v>5</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -2823,9 +2871,9 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P27" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2844,7 +2892,9 @@
       <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11">
+        <v>5</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -2854,9 +2904,9 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P28" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2875,7 +2925,9 @@
       <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11">
+        <v>5</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -2885,9 +2937,9 @@
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P29" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2906,7 +2958,9 @@
       <c r="E30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11">
+        <v>5</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -2916,9 +2970,9 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P30" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2937,7 +2991,9 @@
       <c r="E31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="11">
+        <v>5</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -2947,9 +3003,9 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P31" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2968,7 +3024,9 @@
       <c r="E32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="11">
+        <v>5</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -2978,9 +3036,9 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P32" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2999,7 +3057,9 @@
       <c r="E33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="11">
+        <v>5</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3009,9 +3069,9 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P33" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3030,7 +3090,9 @@
       <c r="E34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="11">
+        <v>5</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3040,9 +3102,9 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P34" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3061,7 +3123,9 @@
       <c r="E35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="11">
+        <v>5</v>
+      </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3071,9 +3135,9 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P35" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3123,7 +3187,9 @@
       <c r="E37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="11">
+        <v>5</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -3133,9 +3199,9 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P37" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3154,7 +3220,9 @@
       <c r="E38" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="11">
+        <v>10</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -3164,9 +3232,9 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P38" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3185,7 +3253,9 @@
       <c r="E39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="11">
+        <v>5</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3195,9 +3265,9 @@
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
-      <c r="P39" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P39" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3216,7 +3286,9 @@
       <c r="E40" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11">
+        <v>5</v>
+      </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3226,9 +3298,9 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
-      <c r="P40" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P40" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3247,7 +3319,9 @@
       <c r="E41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="11">
+        <v>5</v>
+      </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -3257,9 +3331,9 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P41" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3278,7 +3352,9 @@
       <c r="E42" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11">
+        <v>5</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3288,9 +3364,9 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P42" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3309,7 +3385,9 @@
       <c r="E43" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="11">
+        <v>5</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3319,9 +3397,9 @@
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
-      <c r="P43" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P43" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3340,7 +3418,9 @@
       <c r="E44" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="11">
+        <v>10</v>
+      </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3350,9 +3430,9 @@
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
-      <c r="P44" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P44" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3371,7 +3451,9 @@
       <c r="E45" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="11">
+        <v>9</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -3381,9 +3463,9 @@
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
-      <c r="P45" s="12" t="e">
+      <c r="P45" s="12">
         <f t="shared" ref="P45" si="1">AVERAGE(F45:O45)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3402,7 +3484,9 @@
       <c r="E46" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="11">
+        <v>5</v>
+      </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3412,9 +3496,9 @@
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
-      <c r="P46" s="12" t="e">
+      <c r="P46" s="12">
         <f t="shared" ref="P46" si="2">AVERAGE(F46:O46)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3448,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F43"/>
+    <sheetView topLeftCell="A27" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3597,7 +3681,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -3610,7 +3694,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="12">
         <f t="shared" ref="P4:P40" si="0">AVERAGE(F4:O4)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3894,7 +3978,7 @@
         <v>126</v>
       </c>
       <c r="F13" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -3907,7 +3991,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4026,7 +4110,7 @@
         <v>138</v>
       </c>
       <c r="F17" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -4039,7 +4123,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4125,7 +4209,7 @@
         <v>147</v>
       </c>
       <c r="F20" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -4138,7 +4222,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4224,7 +4308,7 @@
         <v>156</v>
       </c>
       <c r="F23" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -4237,7 +4321,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4785,7 +4869,7 @@
         <v>206</v>
       </c>
       <c r="F40" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -4798,7 +4882,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">

--- a/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B01014-3B16-43D1-AC3A-60752D4F0062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D32D01-12D6-488C-9C80-CDD640B764A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="1272" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="468">
   <si>
     <t>Student Details</t>
   </si>
@@ -135,1306 +135,1311 @@
     <t>Ella</t>
   </si>
   <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>韩亚州</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>魏嘉李</t>
+  </si>
+  <si>
+    <t>Christy</t>
+  </si>
+  <si>
+    <t>张娜娜</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>张东顺</t>
+  </si>
+  <si>
+    <t>Dietrich</t>
+  </si>
+  <si>
+    <t>哈烨坤</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>丁源</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>李逸凡</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>张嘉颖</t>
+  </si>
+  <si>
+    <t>Yami</t>
+  </si>
+  <si>
+    <t>贾宁辉</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>周莉</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>马月兰</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>滕国瑞</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>宋晓强</t>
+  </si>
+  <si>
+    <t>Athy</t>
+  </si>
+  <si>
+    <t>胡新兵</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>杨玄</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>康金虎</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>李博</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>祁慧东</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>双雅婷</t>
+  </si>
+  <si>
+    <t>Una</t>
+  </si>
+  <si>
+    <t>杨宁</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>邹业妮</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>薛永帅</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>杨皓</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>夏霄</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>王艳宁</t>
+  </si>
+  <si>
+    <t>Grance</t>
+  </si>
+  <si>
+    <t>李伟</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>虎辉</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>王万文</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>罗磊</t>
+  </si>
+  <si>
+    <t>Andolf</t>
+  </si>
+  <si>
+    <t>康静</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Gorden</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>Niko</t>
+  </si>
+  <si>
+    <t>Zhongwei- CC2</t>
+  </si>
+  <si>
+    <t>万军</t>
+  </si>
+  <si>
+    <t>12018246052</t>
+  </si>
+  <si>
+    <t>Tobey</t>
+  </si>
+  <si>
+    <t>刘丹莉</t>
+  </si>
+  <si>
+    <t>12018246055</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>邓博文</t>
+  </si>
+  <si>
+    <t>12018246056</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>李涛</t>
+  </si>
+  <si>
+    <t>12018246057</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>万里倩</t>
+  </si>
+  <si>
+    <t>12018246058</t>
+  </si>
+  <si>
+    <t>Foam</t>
+  </si>
+  <si>
+    <t>杨隆</t>
+  </si>
+  <si>
+    <t>12018246060</t>
+  </si>
+  <si>
+    <t>马嘉龙</t>
+  </si>
+  <si>
+    <t>12018246062</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>郭瑜麟</t>
+  </si>
+  <si>
+    <t>12018246068</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>连源</t>
+  </si>
+  <si>
+    <t>12018246075</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>12018246076</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>曾玉洁</t>
+  </si>
+  <si>
+    <t>12018246077</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>高雪</t>
+  </si>
+  <si>
+    <t>12018246080</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>马姝昱</t>
+  </si>
+  <si>
+    <t>12018246086</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>王紫瑜</t>
+  </si>
+  <si>
+    <t>12018246090</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>刘德鹏</t>
+  </si>
+  <si>
+    <t>12018246093</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>杨昊</t>
+  </si>
+  <si>
+    <t>12018246096</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>马佳华</t>
+  </si>
+  <si>
+    <t>12018246097</t>
+  </si>
+  <si>
+    <t>D.Rose</t>
+  </si>
+  <si>
+    <t>陈嘉炜</t>
+  </si>
+  <si>
+    <t>12018246117</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>雷凯</t>
+  </si>
+  <si>
+    <t>12018246118</t>
+  </si>
+  <si>
+    <t>Karry</t>
+  </si>
+  <si>
+    <t>王鑫峰</t>
+  </si>
+  <si>
+    <t>12018246119</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>牛涛</t>
+  </si>
+  <si>
+    <t>12018246120</t>
+  </si>
+  <si>
+    <t>Saber</t>
+  </si>
+  <si>
+    <t>陈建</t>
+  </si>
+  <si>
+    <t>12018246122</t>
+  </si>
+  <si>
+    <t>Cope</t>
+  </si>
+  <si>
+    <t>张爱国</t>
+  </si>
+  <si>
+    <t>12018246130</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>陈家辉</t>
+  </si>
+  <si>
+    <t>12018246131</t>
+  </si>
+  <si>
+    <t>马世发</t>
+  </si>
+  <si>
+    <t>12018246134</t>
+  </si>
+  <si>
+    <t>Edam</t>
+  </si>
+  <si>
+    <t>王嫣</t>
+  </si>
+  <si>
+    <t>12018246138</t>
+  </si>
+  <si>
+    <t>Lilly</t>
+  </si>
+  <si>
+    <t>张一博</t>
+  </si>
+  <si>
+    <t>12018246139</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>王恺</t>
+  </si>
+  <si>
+    <t>12018246144</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>杨博</t>
+  </si>
+  <si>
+    <t>12018246147</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>杨起帆</t>
+  </si>
+  <si>
+    <t>12018246149</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>张龙龙</t>
+  </si>
+  <si>
+    <t>12018246152</t>
+  </si>
+  <si>
+    <t>Dunte</t>
+  </si>
+  <si>
+    <t>马明虎</t>
+  </si>
+  <si>
+    <t>12018246153</t>
+  </si>
+  <si>
+    <t>Derrick</t>
+  </si>
+  <si>
+    <t>李旭通</t>
+  </si>
+  <si>
+    <t>12018246157</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>胡安宁</t>
+  </si>
+  <si>
+    <t>12018246158</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>张慧霞</t>
+  </si>
+  <si>
+    <t>12018246161</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>王晓斌</t>
+  </si>
+  <si>
+    <t>12018246162</t>
+  </si>
+  <si>
+    <t>Breeze</t>
+  </si>
+  <si>
+    <t>谢安国</t>
+  </si>
+  <si>
+    <t>12018246167</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>赵连杰</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>史雲霄</t>
+  </si>
+  <si>
+    <t>杨文源</t>
+  </si>
+  <si>
+    <t>Kelent</t>
+  </si>
+  <si>
+    <t>Zhongwei- CC3</t>
+  </si>
+  <si>
+    <t>范嘉慧</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>徐旺</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>李兴旺</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>杨林凯</t>
+  </si>
+  <si>
+    <t>Suzy</t>
+  </si>
+  <si>
+    <t>田宗宝</t>
+  </si>
+  <si>
+    <t>Terrel</t>
+  </si>
+  <si>
+    <t>禹杰</t>
+  </si>
+  <si>
+    <t>虎娜</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>胡瑞铎</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>秦轲</t>
+  </si>
+  <si>
+    <t>Candy Boy</t>
+  </si>
+  <si>
+    <t>胡阿慧</t>
+  </si>
+  <si>
+    <t>Alisa</t>
+  </si>
+  <si>
+    <t>胡聪山</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>路佳轩</t>
+  </si>
+  <si>
+    <t>Aimee</t>
+  </si>
+  <si>
+    <t>牛健峰</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>朱振</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>赵恬欣</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>徐斌</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>贺海龙</t>
+  </si>
+  <si>
+    <t>Harden</t>
+  </si>
+  <si>
+    <t>王漫</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>苏嘉轩</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>李付迁</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>冯新胜</t>
+  </si>
+  <si>
+    <t>Addie</t>
+  </si>
+  <si>
+    <t>王新文</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>景芮楠</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>杨彦曦</t>
+  </si>
+  <si>
+    <t>刘晗</t>
+  </si>
+  <si>
+    <t>Lawis</t>
+  </si>
+  <si>
+    <t>虎鹏</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>田进虎</t>
+  </si>
+  <si>
+    <t>卢柱</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>姬委</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>张盼凤</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>陈芮</t>
+  </si>
+  <si>
+    <t>Selina</t>
+  </si>
+  <si>
+    <t>樊启启</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>于静龙</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>王荣霞</t>
+  </si>
+  <si>
+    <t>高万富</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>庞卓</t>
+  </si>
+  <si>
+    <t>Katy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虎小贵</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>周佳宁</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>赵少华</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Zhongwei- NIIT1</t>
+  </si>
+  <si>
+    <t>张旦东</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>李晨航</t>
+  </si>
+  <si>
+    <t>Kyrie</t>
+  </si>
+  <si>
+    <t>王凯琪</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>贺炜桐</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>陈辉</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>张琰翊</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>黄川</t>
+  </si>
+  <si>
+    <t>Pyke</t>
+  </si>
+  <si>
+    <t>尹海云</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>李九江</t>
+  </si>
+  <si>
+    <t>Lisege</t>
+  </si>
+  <si>
+    <t>王超磊</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>申梦芸</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>孙强</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>李婷婷</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>张骞</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>王志龙</t>
+  </si>
+  <si>
+    <t>王志行</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>刘小芳</t>
+  </si>
+  <si>
+    <t>张祺之</t>
+  </si>
+  <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t>买小芳</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>梁娜</t>
+  </si>
+  <si>
+    <t>Quella</t>
+  </si>
+  <si>
+    <t>赵浩</t>
+  </si>
+  <si>
+    <t>Wosage</t>
+  </si>
+  <si>
+    <t>张永强</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>孙付贵</t>
+  </si>
+  <si>
+    <t>马瑞虎</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>卢莉伟</t>
+  </si>
+  <si>
+    <t>Luse</t>
+  </si>
+  <si>
+    <t>李登龙</t>
+  </si>
+  <si>
+    <t>张翻弟</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>杨彦芃</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>刘娜娜</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>孙虎威</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>鲜少玉</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>王亚男</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>陈昭君</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>王萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王炳刚</t>
+  </si>
+  <si>
+    <t>WZZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 柴潇凤</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>段家宝</t>
+  </si>
+  <si>
+    <t>Bazinga</t>
+  </si>
+  <si>
+    <t>蔡国栋</t>
+  </si>
+  <si>
+    <t>Jack  Cai</t>
+  </si>
+  <si>
+    <t>Zhongwei- NIIT2</t>
+  </si>
+  <si>
+    <t>杨军</t>
+  </si>
+  <si>
+    <t>12018246202</t>
+  </si>
+  <si>
+    <t>Gerry</t>
+  </si>
+  <si>
+    <t>马富彪</t>
+  </si>
+  <si>
+    <t>12018246209</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>禹鹏强</t>
+  </si>
+  <si>
+    <t>12018246213</t>
+  </si>
+  <si>
+    <t>Jack Yu</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>王政国</t>
+  </si>
+  <si>
+    <t>12018246214</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>唐俊杰</t>
+  </si>
+  <si>
+    <t>12018246216</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>郭晓鹏</t>
+  </si>
+  <si>
+    <t>12018246218</t>
+  </si>
+  <si>
+    <t>赵欣</t>
+  </si>
+  <si>
+    <t>12018246224</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>金丽娜</t>
+  </si>
+  <si>
+    <t>12018246226</t>
+  </si>
+  <si>
+    <t>Linna</t>
+  </si>
+  <si>
+    <t>万龙</t>
+  </si>
+  <si>
+    <t>12018246228</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>麻建萍</t>
+  </si>
+  <si>
+    <t>12018246229</t>
+  </si>
+  <si>
+    <t>王嘉俊</t>
+  </si>
+  <si>
+    <t>12018246230</t>
+  </si>
+  <si>
+    <t>刘丛林</t>
+  </si>
+  <si>
+    <t>12018246231</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>杨林</t>
+  </si>
+  <si>
+    <t>12018246234</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>马虎</t>
+  </si>
+  <si>
+    <t>12018246236</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>王维文</t>
+  </si>
+  <si>
+    <t>12018246237</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>马锦秀</t>
+  </si>
+  <si>
+    <t>12018246239</t>
+  </si>
+  <si>
+    <t>刘霞</t>
+  </si>
+  <si>
+    <t>12018246240</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>郭君</t>
+  </si>
+  <si>
+    <t>12018246242</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>王宜轩</t>
+  </si>
+  <si>
+    <t>12018246246</t>
+  </si>
+  <si>
+    <t>Enzo</t>
+  </si>
+  <si>
+    <t>陈惠兄</t>
+  </si>
+  <si>
+    <t>12018246247</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>郭斌</t>
+  </si>
+  <si>
+    <t>12018246248</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>周李牧野</t>
+  </si>
+  <si>
+    <t>12018246249</t>
+  </si>
+  <si>
+    <t>马小龙</t>
+  </si>
+  <si>
+    <t>12018246250</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>潘文伯</t>
+  </si>
+  <si>
+    <t>12018246253</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>李磊</t>
+  </si>
+  <si>
+    <t>12018246254</t>
+  </si>
+  <si>
+    <t>Kirito</t>
+  </si>
+  <si>
+    <t>谢浩</t>
+  </si>
+  <si>
+    <t>12018246256</t>
+  </si>
+  <si>
+    <t>Vickie</t>
+  </si>
+  <si>
+    <t>姬云利</t>
+  </si>
+  <si>
+    <t>12018246258</t>
+  </si>
+  <si>
+    <t>Keira</t>
+  </si>
+  <si>
+    <t>何宁</t>
+  </si>
+  <si>
+    <t>12018246259</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>虎园凤</t>
+  </si>
+  <si>
+    <t>12018246260</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>周苗苗</t>
+  </si>
+  <si>
+    <t>12018246264</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>兰志成</t>
+  </si>
+  <si>
+    <t>12018246266</t>
+  </si>
+  <si>
+    <t>Glasses</t>
+  </si>
+  <si>
+    <t>晁显</t>
+  </si>
+  <si>
+    <t>12018246270</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 马宏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sam</t>
+  </si>
+  <si>
+    <t>马智慧</t>
+  </si>
+  <si>
+    <t>王启宏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安继奎</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnson</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嘉鹏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>田嘉喜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>张俊</t>
-  </si>
-  <si>
-    <t>May</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>李国龙</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>韩亚州</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t>魏嘉李</t>
-  </si>
-  <si>
-    <t>Christy</t>
-  </si>
-  <si>
-    <t>张娜娜</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>张东顺</t>
-  </si>
-  <si>
-    <t>Dietrich</t>
-  </si>
-  <si>
-    <t>哈烨坤</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>丁源</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>李逸凡</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>张嘉颖</t>
-  </si>
-  <si>
-    <t>Yami</t>
-  </si>
-  <si>
-    <t>贾宁辉</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>周莉</t>
-  </si>
-  <si>
-    <t>Judy</t>
-  </si>
-  <si>
-    <t>马月兰</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>滕国瑞</t>
-  </si>
-  <si>
-    <t>Snake</t>
-  </si>
-  <si>
-    <t>宋晓强</t>
-  </si>
-  <si>
-    <t>Athy</t>
-  </si>
-  <si>
-    <t>胡新兵</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>杨玄</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>康金虎</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>李博</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>祁慧东</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>双雅婷</t>
-  </si>
-  <si>
-    <t>Una</t>
-  </si>
-  <si>
-    <t>杨宁</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>邹业妮</t>
-  </si>
-  <si>
-    <t>Denise</t>
-  </si>
-  <si>
-    <t>薛永帅</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>杨皓</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>夏霄</t>
-  </si>
-  <si>
-    <t>Abe</t>
-  </si>
-  <si>
-    <t>李娜</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>王艳宁</t>
-  </si>
-  <si>
-    <t>Grance</t>
-  </si>
-  <si>
-    <t>李伟</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>虎辉</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>王万文</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>罗磊</t>
-  </si>
-  <si>
-    <t>Andolf</t>
-  </si>
-  <si>
-    <t>康静</t>
-  </si>
-  <si>
-    <t>Rain</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>虎登发</t>
-  </si>
-  <si>
-    <t>Gorden</t>
-  </si>
-  <si>
-    <t>田嘉喜</t>
-  </si>
-  <si>
-    <t>Dream</t>
-  </si>
-  <si>
-    <t>李嘉鹏</t>
-  </si>
-  <si>
-    <t>Niko</t>
-  </si>
-  <si>
-    <t>Zhongwei- CC2</t>
-  </si>
-  <si>
-    <t>万军</t>
-  </si>
-  <si>
-    <t>12018246052</t>
-  </si>
-  <si>
-    <t>Tobey</t>
-  </si>
-  <si>
-    <t>刘丹莉</t>
-  </si>
-  <si>
-    <t>12018246055</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>邓博文</t>
-  </si>
-  <si>
-    <t>12018246056</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>李涛</t>
-  </si>
-  <si>
-    <t>12018246057</t>
-  </si>
-  <si>
-    <t>Melinda</t>
-  </si>
-  <si>
-    <t>万里倩</t>
-  </si>
-  <si>
-    <t>12018246058</t>
-  </si>
-  <si>
-    <t>Foam</t>
-  </si>
-  <si>
-    <t>杨隆</t>
-  </si>
-  <si>
-    <t>12018246060</t>
-  </si>
-  <si>
-    <t>马嘉龙</t>
-  </si>
-  <si>
-    <t>12018246062</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>郭瑜麟</t>
-  </si>
-  <si>
-    <t>12018246068</t>
-  </si>
-  <si>
-    <t>Angelina</t>
-  </si>
-  <si>
-    <t>连源</t>
-  </si>
-  <si>
-    <t>12018246075</t>
-  </si>
-  <si>
-    <t>Melody</t>
-  </si>
-  <si>
-    <t>12018246076</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>曾玉洁</t>
-  </si>
-  <si>
-    <t>12018246077</t>
-  </si>
-  <si>
-    <t>Shiny</t>
-  </si>
-  <si>
-    <t>高雪</t>
-  </si>
-  <si>
-    <t>12018246080</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>马姝昱</t>
-  </si>
-  <si>
-    <t>12018246086</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>王紫瑜</t>
-  </si>
-  <si>
-    <t>12018246090</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>刘德鹏</t>
-  </si>
-  <si>
-    <t>12018246093</t>
-  </si>
-  <si>
-    <t>Devin</t>
-  </si>
-  <si>
-    <t>杨昊</t>
-  </si>
-  <si>
-    <t>12018246096</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>马佳华</t>
-  </si>
-  <si>
-    <t>12018246097</t>
-  </si>
-  <si>
-    <t>D.Rose</t>
-  </si>
-  <si>
-    <t>陈嘉炜</t>
-  </si>
-  <si>
-    <t>12018246117</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>雷凯</t>
-  </si>
-  <si>
-    <t>12018246118</t>
-  </si>
-  <si>
-    <t>Karry</t>
-  </si>
-  <si>
-    <t>王鑫峰</t>
-  </si>
-  <si>
-    <t>12018246119</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>牛涛</t>
-  </si>
-  <si>
-    <t>12018246120</t>
-  </si>
-  <si>
-    <t>Saber</t>
-  </si>
-  <si>
-    <t>陈建</t>
-  </si>
-  <si>
-    <t>12018246122</t>
-  </si>
-  <si>
-    <t>Cope</t>
-  </si>
-  <si>
-    <t>张爱国</t>
-  </si>
-  <si>
-    <t>12018246130</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>陈家辉</t>
-  </si>
-  <si>
-    <t>12018246131</t>
-  </si>
-  <si>
-    <t>马世发</t>
-  </si>
-  <si>
-    <t>12018246134</t>
-  </si>
-  <si>
-    <t>Edam</t>
-  </si>
-  <si>
-    <t>王嫣</t>
-  </si>
-  <si>
-    <t>12018246138</t>
-  </si>
-  <si>
-    <t>Lilly</t>
-  </si>
-  <si>
-    <t>张一博</t>
-  </si>
-  <si>
-    <t>12018246139</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>王恺</t>
-  </si>
-  <si>
-    <t>12018246144</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>杨博</t>
-  </si>
-  <si>
-    <t>12018246147</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>杨起帆</t>
-  </si>
-  <si>
-    <t>12018246149</t>
-  </si>
-  <si>
-    <t>Alina</t>
-  </si>
-  <si>
-    <t>张龙龙</t>
-  </si>
-  <si>
-    <t>12018246152</t>
-  </si>
-  <si>
-    <t>Dunte</t>
-  </si>
-  <si>
-    <t>马明虎</t>
-  </si>
-  <si>
-    <t>12018246153</t>
-  </si>
-  <si>
-    <t>Derrick</t>
-  </si>
-  <si>
-    <t>李旭通</t>
-  </si>
-  <si>
-    <t>12018246157</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>胡安宁</t>
-  </si>
-  <si>
-    <t>12018246158</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>张慧霞</t>
-  </si>
-  <si>
-    <t>12018246161</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>王晓斌</t>
-  </si>
-  <si>
-    <t>12018246162</t>
-  </si>
-  <si>
-    <t>Breeze</t>
-  </si>
-  <si>
-    <t>谢安国</t>
-  </si>
-  <si>
-    <t>12018246167</t>
-  </si>
-  <si>
-    <t>Carson</t>
-  </si>
-  <si>
-    <t>赵连杰</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>史雲霄</t>
-  </si>
-  <si>
-    <t>杨文源</t>
-  </si>
-  <si>
-    <t>Kelent</t>
-  </si>
-  <si>
-    <t>Zhongwei- CC3</t>
-  </si>
-  <si>
-    <t>范嘉慧</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>徐旺</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>李兴旺</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>杨林凯</t>
-  </si>
-  <si>
-    <t>Suzy</t>
-  </si>
-  <si>
-    <t>田宗宝</t>
-  </si>
-  <si>
-    <t>Terrel</t>
-  </si>
-  <si>
-    <t>禹杰</t>
-  </si>
-  <si>
-    <t>虎娜</t>
-  </si>
-  <si>
-    <t>Fern</t>
-  </si>
-  <si>
-    <t>胡瑞铎</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>秦轲</t>
-  </si>
-  <si>
-    <t>Candy Boy</t>
-  </si>
-  <si>
-    <t>胡阿慧</t>
-  </si>
-  <si>
-    <t>Alisa</t>
-  </si>
-  <si>
-    <t>胡聪山</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>路佳轩</t>
-  </si>
-  <si>
-    <t>Aimee</t>
-  </si>
-  <si>
-    <t>牛健峰</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>朱振</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>赵恬欣</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>徐斌</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>贺海龙</t>
-  </si>
-  <si>
-    <t>Harden</t>
-  </si>
-  <si>
-    <t>王漫</t>
-  </si>
-  <si>
-    <t>Carry</t>
-  </si>
-  <si>
-    <t>苏嘉轩</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>李付迁</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>冯新胜</t>
-  </si>
-  <si>
-    <t>Addie</t>
-  </si>
-  <si>
-    <t>王新文</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>景芮楠</t>
-  </si>
-  <si>
-    <t>Renee</t>
-  </si>
-  <si>
-    <t>杨彦曦</t>
-  </si>
-  <si>
-    <t>刘晗</t>
-  </si>
-  <si>
-    <t>Lawis</t>
-  </si>
-  <si>
-    <t>虎鹏</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>田进虎</t>
-  </si>
-  <si>
-    <t>卢柱</t>
-  </si>
-  <si>
-    <t>Kobe</t>
-  </si>
-  <si>
-    <t>姬委</t>
-  </si>
-  <si>
-    <t>Jameson</t>
-  </si>
-  <si>
-    <t>张盼凤</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>陈芮</t>
-  </si>
-  <si>
-    <t>Selina</t>
-  </si>
-  <si>
-    <t>樊启启</t>
-  </si>
-  <si>
-    <t>Jayden</t>
-  </si>
-  <si>
-    <t>于静龙</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>王荣霞</t>
-  </si>
-  <si>
-    <t>高万富</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>庞卓</t>
-  </si>
-  <si>
-    <t>Katy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 虎小贵</t>
-  </si>
-  <si>
-    <t>Bron</t>
-  </si>
-  <si>
-    <t>周佳宁</t>
-  </si>
-  <si>
-    <t>Potter</t>
-  </si>
-  <si>
-    <t>赵少华</t>
-  </si>
-  <si>
-    <t>Raymond</t>
-  </si>
-  <si>
-    <t>Zhongwei- NIIT1</t>
-  </si>
-  <si>
-    <t>张旦东</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>李晨航</t>
-  </si>
-  <si>
-    <t>Kyrie</t>
-  </si>
-  <si>
-    <t>王凯琪</t>
-  </si>
-  <si>
-    <t>Kathy</t>
-  </si>
-  <si>
-    <t>贺炜桐</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>陈辉</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>张琰翊</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>黄川</t>
-  </si>
-  <si>
-    <t>Pyke</t>
-  </si>
-  <si>
-    <t>尹海云</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>李九江</t>
-  </si>
-  <si>
-    <t>Lisege</t>
-  </si>
-  <si>
-    <t>王超磊</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>申梦芸</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>孙强</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>李婷婷</t>
-  </si>
-  <si>
-    <t>Iris</t>
-  </si>
-  <si>
-    <t>张骞</t>
-  </si>
-  <si>
-    <t>Irving</t>
-  </si>
-  <si>
-    <t>王志龙</t>
-  </si>
-  <si>
-    <t>王志行</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>刘小芳</t>
-  </si>
-  <si>
-    <t>张祺之</t>
-  </si>
-  <si>
-    <t>Ellison</t>
-  </si>
-  <si>
-    <t>买小芳</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>梁娜</t>
-  </si>
-  <si>
-    <t>Quella</t>
-  </si>
-  <si>
-    <t>赵浩</t>
-  </si>
-  <si>
-    <t>Wosage</t>
-  </si>
-  <si>
-    <t>张永强</t>
-  </si>
-  <si>
-    <t>Zed</t>
-  </si>
-  <si>
-    <t>孙付贵</t>
-  </si>
-  <si>
-    <t>马瑞虎</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>卢莉伟</t>
-  </si>
-  <si>
-    <t>Luse</t>
-  </si>
-  <si>
-    <t>李登龙</t>
-  </si>
-  <si>
-    <t>张翻弟</t>
-  </si>
-  <si>
-    <t>Joanna</t>
-  </si>
-  <si>
-    <t>杨彦芃</t>
-  </si>
-  <si>
-    <t>Sunshine</t>
-  </si>
-  <si>
-    <t>刘娜娜</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>孙虎威</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>鲜少玉</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>王亚男</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>陈昭君</t>
-  </si>
-  <si>
-    <t>Mia</t>
-  </si>
-  <si>
-    <t>王萍</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 王炳刚</t>
-  </si>
-  <si>
-    <t>WZZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 柴潇凤</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>段家宝</t>
-  </si>
-  <si>
-    <t>Bazinga</t>
-  </si>
-  <si>
-    <t>蔡国栋</t>
-  </si>
-  <si>
-    <t>Jack  Cai</t>
-  </si>
-  <si>
-    <t>Zhongwei- NIIT2</t>
-  </si>
-  <si>
-    <t>杨军</t>
-  </si>
-  <si>
-    <t>12018246202</t>
-  </si>
-  <si>
-    <t>Gerry</t>
-  </si>
-  <si>
-    <t>马富彪</t>
-  </si>
-  <si>
-    <t>12018246209</t>
-  </si>
-  <si>
-    <t>Raven</t>
-  </si>
-  <si>
-    <t>禹鹏强</t>
-  </si>
-  <si>
-    <t>12018246213</t>
-  </si>
-  <si>
-    <t>Jack Yu</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>王政国</t>
-  </si>
-  <si>
-    <t>12018246214</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>唐俊杰</t>
-  </si>
-  <si>
-    <t>12018246216</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>郭晓鹏</t>
-  </si>
-  <si>
-    <t>12018246218</t>
-  </si>
-  <si>
-    <t>赵欣</t>
-  </si>
-  <si>
-    <t>12018246224</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>金丽娜</t>
-  </si>
-  <si>
-    <t>12018246226</t>
-  </si>
-  <si>
-    <t>Linna</t>
-  </si>
-  <si>
-    <t>万龙</t>
-  </si>
-  <si>
-    <t>12018246228</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>麻建萍</t>
-  </si>
-  <si>
-    <t>12018246229</t>
-  </si>
-  <si>
-    <t>王嘉俊</t>
-  </si>
-  <si>
-    <t>12018246230</t>
-  </si>
-  <si>
-    <t>刘丛林</t>
-  </si>
-  <si>
-    <t>12018246231</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>杨林</t>
-  </si>
-  <si>
-    <t>12018246234</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>马虎</t>
-  </si>
-  <si>
-    <t>12018246236</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>王维文</t>
-  </si>
-  <si>
-    <t>12018246237</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>马锦秀</t>
-  </si>
-  <si>
-    <t>12018246239</t>
-  </si>
-  <si>
-    <t>刘霞</t>
-  </si>
-  <si>
-    <t>12018246240</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>郭君</t>
-  </si>
-  <si>
-    <t>12018246242</t>
-  </si>
-  <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>王宜轩</t>
-  </si>
-  <si>
-    <t>12018246246</t>
-  </si>
-  <si>
-    <t>Enzo</t>
-  </si>
-  <si>
-    <t>陈惠兄</t>
-  </si>
-  <si>
-    <t>12018246247</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>郭斌</t>
-  </si>
-  <si>
-    <t>12018246248</t>
-  </si>
-  <si>
-    <t>Garland</t>
-  </si>
-  <si>
-    <t>周李牧野</t>
-  </si>
-  <si>
-    <t>12018246249</t>
-  </si>
-  <si>
-    <t>马小龙</t>
-  </si>
-  <si>
-    <t>12018246250</t>
-  </si>
-  <si>
-    <t>Gavin</t>
-  </si>
-  <si>
-    <t>潘文伯</t>
-  </si>
-  <si>
-    <t>12018246253</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>李磊</t>
-  </si>
-  <si>
-    <t>12018246254</t>
-  </si>
-  <si>
-    <t>Kirito</t>
-  </si>
-  <si>
-    <t>谢浩</t>
-  </si>
-  <si>
-    <t>12018246256</t>
-  </si>
-  <si>
-    <t>Vickie</t>
-  </si>
-  <si>
-    <t>姬云利</t>
-  </si>
-  <si>
-    <t>12018246258</t>
-  </si>
-  <si>
-    <t>Keira</t>
-  </si>
-  <si>
-    <t>何宁</t>
-  </si>
-  <si>
-    <t>12018246259</t>
-  </si>
-  <si>
-    <t>Gina</t>
-  </si>
-  <si>
-    <t>虎园凤</t>
-  </si>
-  <si>
-    <t>12018246260</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>周苗苗</t>
-  </si>
-  <si>
-    <t>12018246264</t>
-  </si>
-  <si>
-    <t>Belinda</t>
-  </si>
-  <si>
-    <t>兰志成</t>
-  </si>
-  <si>
-    <t>12018246266</t>
-  </si>
-  <si>
-    <t>Glasses</t>
-  </si>
-  <si>
-    <t>晁显</t>
-  </si>
-  <si>
-    <t>12018246270</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 马宏</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sam</t>
-  </si>
-  <si>
-    <t>马智慧</t>
-  </si>
-  <si>
-    <t>王启宏</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 安继奎</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Johnson</t>
-  </si>
-  <si>
-    <t>王鹏</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1443,9 +1448,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,6 +1508,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1617,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1647,13 +1668,16 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,7 +1704,10 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1963,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1988,41 +2015,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2055,24 +2082,24 @@
       <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="4">
         <v>44094</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
+      <c r="G3" s="4">
+        <v>44101</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44108</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>18</v>
@@ -2095,7 +2122,7 @@
       <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="17"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2116,8 +2143,12 @@
       <c r="F4" s="11">
         <v>70</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="11">
+        <v>140</v>
+      </c>
+      <c r="H4" s="11">
+        <v>140</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -2127,7 +2158,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="12">
         <f t="shared" ref="P4:P44" si="0">AVERAGE(F4:O4)</f>
-        <v>70</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2149,8 +2180,12 @@
       <c r="F5" s="11">
         <v>50</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="11">
+        <v>140</v>
+      </c>
+      <c r="H5" s="11">
+        <v>140</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2160,7 +2195,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2182,8 +2217,12 @@
       <c r="F6" s="11">
         <v>60</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="11">
+        <v>150</v>
+      </c>
+      <c r="H6" s="11">
+        <v>130</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2193,7 +2232,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2215,8 +2254,12 @@
       <c r="F7" s="11">
         <v>60</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="11">
+        <v>140</v>
+      </c>
+      <c r="H7" s="11">
+        <v>130</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -2226,7 +2269,7 @@
       <c r="O7" s="11"/>
       <c r="P7" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2248,8 +2291,12 @@
       <c r="F8" s="11">
         <v>60</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="11">
+        <v>150</v>
+      </c>
+      <c r="H8" s="11">
+        <v>120</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2259,7 +2306,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2281,8 +2328,12 @@
       <c r="F9" s="11">
         <v>60</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="11">
+        <v>150</v>
+      </c>
+      <c r="H9" s="11">
+        <v>140</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -2292,7 +2343,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2314,8 +2365,12 @@
       <c r="F10" s="11">
         <v>60</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="11">
+        <v>150</v>
+      </c>
+      <c r="H10" s="11">
+        <v>140</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -2325,7 +2380,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2335,20 +2390,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
+      <c r="C11" s="23" t="s">
+        <v>465</v>
       </c>
       <c r="D11" s="13">
         <v>12018246054</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="11">
         <v>60</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="11">
+        <v>130</v>
+      </c>
+      <c r="H11" s="11">
+        <v>140</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -2358,7 +2417,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2368,20 +2427,24 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>36</v>
+      <c r="C12" s="23" t="s">
+        <v>466</v>
       </c>
       <c r="D12" s="13">
         <v>12018246059</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="11">
         <v>60</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="11">
+        <v>130</v>
+      </c>
+      <c r="H12" s="11">
+        <v>140</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -2391,7 +2454,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2402,19 +2465,23 @@
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="13">
         <v>12018246063</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="11">
         <v>60</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="11">
+        <v>140</v>
+      </c>
+      <c r="H13" s="11">
+        <v>140</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -2424,7 +2491,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2435,19 +2502,23 @@
         <v>19</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="13">
         <v>12018246070</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="11">
         <v>90</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="11">
+        <v>130</v>
+      </c>
+      <c r="H14" s="11">
+        <v>140</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -2457,7 +2528,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2468,19 +2539,23 @@
         <v>19</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="13">
         <v>12018246079</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="11">
         <v>60</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="11">
+        <v>140</v>
+      </c>
+      <c r="H15" s="11">
+        <v>140</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -2490,7 +2565,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2501,20 +2576,24 @@
         <v>19</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="13">
         <v>12018246082</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="11">
         <v>90</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="11">
+        <v>130</v>
+      </c>
+      <c r="H16" s="11">
+        <v>140</v>
+      </c>
+      <c r="I16" s="24"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2523,7 +2602,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2534,19 +2613,23 @@
         <v>19</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="13">
         <v>12018246084</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="11">
         <v>60</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="11">
+        <v>150</v>
+      </c>
+      <c r="H17" s="11">
+        <v>140</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -2556,7 +2639,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2567,19 +2650,23 @@
         <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="13">
         <v>12018246091</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="11">
         <v>60</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="11">
+        <v>130</v>
+      </c>
+      <c r="H18" s="11">
+        <v>140</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -2589,7 +2676,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2600,19 +2687,23 @@
         <v>19</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="13">
         <v>12018246094</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="11">
         <v>60</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="11">
+        <v>130</v>
+      </c>
+      <c r="H19" s="11">
+        <v>140</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -2622,7 +2713,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2633,19 +2724,23 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="13">
         <v>12018246098</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="11">
         <v>60</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="11">
+        <v>140</v>
+      </c>
+      <c r="H20" s="11">
+        <v>140</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -2655,7 +2750,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2666,19 +2761,23 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="13">
         <v>12018246102</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" s="11">
         <v>60</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="11">
+        <v>130</v>
+      </c>
+      <c r="H21" s="11">
+        <v>140</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -2688,7 +2787,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2699,19 +2798,23 @@
         <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="13">
         <v>12018246103</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="11">
         <v>60</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="11">
+        <v>150</v>
+      </c>
+      <c r="H22" s="11">
+        <v>140</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -2721,7 +2824,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2732,19 +2835,23 @@
         <v>19</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="13">
         <v>12018246106</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="11">
         <v>50</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="11">
+        <v>110</v>
+      </c>
+      <c r="H23" s="11">
+        <v>120</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -2754,7 +2861,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2765,19 +2872,23 @@
         <v>19</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="13">
         <v>12018246109</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="11">
         <v>60</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="11">
+        <v>130</v>
+      </c>
+      <c r="H24" s="11">
+        <v>140</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -2787,7 +2898,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2798,19 +2909,23 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="13">
         <v>12018246110</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="11">
         <v>60</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="11">
+        <v>130</v>
+      </c>
+      <c r="H25" s="11">
+        <v>140</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2820,7 +2935,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2831,19 +2946,23 @@
         <v>19</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="13">
         <v>12018246112</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" s="11">
         <v>60</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="11">
+        <v>150</v>
+      </c>
+      <c r="H26" s="11">
+        <v>140</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -2853,7 +2972,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2864,19 +2983,23 @@
         <v>19</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="13">
         <v>12018246115</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="11">
         <v>60</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="11">
+        <v>130</v>
+      </c>
+      <c r="H27" s="11">
+        <v>140</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -2886,7 +3009,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2897,19 +3020,23 @@
         <v>19</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="13">
         <v>12018246121</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="11">
         <v>60</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="11">
+        <v>150</v>
+      </c>
+      <c r="H28" s="11">
+        <v>140</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -2919,7 +3046,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2930,19 +3057,23 @@
         <v>19</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="13">
         <v>12018246124</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="11">
         <v>60</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="11">
+        <v>150</v>
+      </c>
+      <c r="H29" s="11">
+        <v>140</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -2952,7 +3083,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2963,19 +3094,23 @@
         <v>19</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="13">
         <v>12018246125</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="11">
         <v>60</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="11">
+        <v>120</v>
+      </c>
+      <c r="H30" s="11">
+        <v>140</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -2985,7 +3120,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>106.66666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2996,19 +3131,23 @@
         <v>19</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="13">
         <v>12018246127</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="11">
         <v>60</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="11">
+        <v>140</v>
+      </c>
+      <c r="H31" s="11">
+        <v>140</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -3018,7 +3157,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3029,19 +3168,23 @@
         <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="13">
         <v>12018246129</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F32" s="11">
         <v>60</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="11">
+        <v>150</v>
+      </c>
+      <c r="H32" s="11">
+        <v>140</v>
+      </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -3051,7 +3194,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3062,19 +3205,23 @@
         <v>19</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="13">
         <v>12018246135</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F33" s="11">
         <v>60</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="11">
+        <v>140</v>
+      </c>
+      <c r="H33" s="11">
+        <v>140</v>
+      </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
@@ -3084,7 +3231,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3095,19 +3242,23 @@
         <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="13">
         <v>12018246136</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F34" s="11">
         <v>60</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="11">
+        <v>150</v>
+      </c>
+      <c r="H34" s="11">
+        <v>140</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -3117,7 +3268,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3128,19 +3279,23 @@
         <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="13">
         <v>12018246137</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F35" s="11">
         <v>60</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="11">
+        <v>150</v>
+      </c>
+      <c r="H35" s="11">
+        <v>140</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -3150,7 +3305,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3161,13 +3316,13 @@
         <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="13">
         <v>12018246140</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -3192,19 +3347,23 @@
         <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="13">
         <v>12018246142</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F37" s="11">
         <v>60</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="G37" s="11">
+        <v>140</v>
+      </c>
+      <c r="H37" s="11">
+        <v>140</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -3214,7 +3373,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3225,19 +3384,23 @@
         <v>19</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="13">
         <v>12018246150</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F38" s="11">
         <v>90</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="11">
+        <v>130</v>
+      </c>
+      <c r="H38" s="11">
+        <v>140</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -3247,7 +3410,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3258,19 +3421,23 @@
         <v>19</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="13">
         <v>12018246159</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F39" s="11">
         <v>60</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="11">
+        <v>150</v>
+      </c>
+      <c r="H39" s="11">
+        <v>140</v>
+      </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
@@ -3280,7 +3447,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3291,19 +3458,23 @@
         <v>19</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" s="13">
         <v>12018246160</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F40" s="11">
         <v>60</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="G40" s="11">
+        <v>150</v>
+      </c>
+      <c r="H40" s="11">
+        <v>140</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -3313,7 +3484,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3324,19 +3495,23 @@
         <v>19</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="13">
         <v>12018246164</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F41" s="11">
         <v>60</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="11">
+        <v>150</v>
+      </c>
+      <c r="H41" s="11">
+        <v>140</v>
+      </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
@@ -3346,7 +3521,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3357,19 +3532,23 @@
         <v>19</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="13">
         <v>12018246166</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F42" s="11">
         <v>60</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="G42" s="11">
+        <v>150</v>
+      </c>
+      <c r="H42" s="11">
+        <v>140</v>
+      </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -3379,7 +3558,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3390,19 +3569,23 @@
         <v>19</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="13">
         <v>12018246169</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="11">
         <v>60</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="11">
+        <v>150</v>
+      </c>
+      <c r="H43" s="11">
+        <v>140</v>
+      </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -3412,7 +3595,7 @@
       <c r="O43" s="11"/>
       <c r="P43" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3422,20 +3605,24 @@
       <c r="B44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>100</v>
+      <c r="C44" s="23" t="s">
+        <v>467</v>
       </c>
       <c r="D44" s="13">
         <v>12017245655</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F44" s="11">
         <v>90</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="11">
+        <v>110</v>
+      </c>
+      <c r="H44" s="11">
+        <v>140</v>
+      </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -3445,7 +3632,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3455,20 +3642,24 @@
       <c r="B45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>102</v>
+      <c r="C45" s="23" t="s">
+        <v>464</v>
       </c>
       <c r="D45" s="13">
         <v>12016246281</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F45" s="11">
         <v>80</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="G45" s="11">
+        <v>120</v>
+      </c>
+      <c r="H45" s="11">
+        <v>140</v>
+      </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -3478,7 +3669,7 @@
       <c r="O45" s="11"/>
       <c r="P45" s="12">
         <f t="shared" ref="P45" si="1">AVERAGE(F45:O45)</f>
-        <v>80</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3488,20 +3679,24 @@
       <c r="B46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>104</v>
+      <c r="C46" s="23" t="s">
+        <v>463</v>
       </c>
       <c r="D46" s="13">
         <v>12017245779</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F46" s="11">
         <v>60</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="11">
+        <v>140</v>
+      </c>
+      <c r="H46" s="11">
+        <v>140</v>
+      </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -3511,7 +3706,7 @@
       <c r="O46" s="11"/>
       <c r="P46" s="12">
         <f t="shared" ref="P46" si="2">AVERAGE(F46:O46)</f>
-        <v>60</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3537,7 +3732,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3545,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3567,41 +3762,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3634,24 +3829,24 @@
       <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="4">
         <v>44094</v>
       </c>
       <c r="G3" s="4">
         <v>44101</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
+      <c r="H3" s="4">
+        <v>44108</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>18</v>
@@ -3674,23 +3869,23 @@
       <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="17"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F4" s="11">
         <v>80</v>
@@ -3698,7 +3893,9 @@
       <c r="G4" s="11">
         <v>130</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11">
+        <v>140</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3708,7 +3905,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="12">
         <f t="shared" ref="P4:P40" si="0">AVERAGE(F4:O4)</f>
-        <v>105</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3716,16 +3913,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F5" s="11">
         <v>90</v>
@@ -3733,7 +3930,9 @@
       <c r="G5" s="11">
         <v>130</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11">
+        <v>140</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -3743,7 +3942,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3751,16 +3950,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F6" s="11">
         <v>90</v>
@@ -3768,7 +3967,9 @@
       <c r="G6" s="11">
         <v>130</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11">
+        <v>140</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -3778,7 +3979,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3786,16 +3987,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F7" s="11">
         <v>90</v>
@@ -3803,7 +4004,9 @@
       <c r="G7" s="11">
         <v>130</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="11">
+        <v>140</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -3813,7 +4016,7 @@
       <c r="O7" s="11"/>
       <c r="P7" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3821,16 +4024,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F8" s="11">
         <v>90</v>
@@ -3838,7 +4041,9 @@
       <c r="G8" s="11">
         <v>130</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>140</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -3848,7 +4053,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3856,16 +4061,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="11">
         <v>90</v>
@@ -3873,7 +4078,9 @@
       <c r="G9" s="11">
         <v>130</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>140</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -3883,7 +4090,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3891,16 +4098,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F10" s="11">
         <v>90</v>
@@ -3908,7 +4115,9 @@
       <c r="G10" s="11">
         <v>130</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <v>140</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3918,7 +4127,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3926,16 +4135,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F11" s="11">
         <v>90</v>
@@ -3943,7 +4152,9 @@
       <c r="G11" s="11">
         <v>110</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <v>140</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -3953,7 +4164,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3961,16 +4172,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F12" s="11">
         <v>90</v>
@@ -3978,7 +4189,9 @@
       <c r="G12" s="11">
         <v>130</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <v>140</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -3988,7 +4201,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -3996,16 +4209,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>467</v>
+        <v>101</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F13" s="11">
         <v>80</v>
@@ -4013,7 +4226,9 @@
       <c r="G13" s="11">
         <v>60</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11">
+        <v>20</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -4023,7 +4238,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4031,16 +4246,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F14" s="11">
         <v>90</v>
@@ -4048,7 +4263,9 @@
       <c r="G14" s="11">
         <v>130</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11">
+        <v>140</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -4058,7 +4275,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4066,16 +4283,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F15" s="11">
         <v>90</v>
@@ -4083,7 +4300,9 @@
       <c r="G15" s="11">
         <v>110</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11">
+        <v>140</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -4093,7 +4312,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4101,16 +4320,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F16" s="11">
         <v>90</v>
@@ -4118,7 +4337,9 @@
       <c r="G16" s="11">
         <v>110</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>140</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -4128,7 +4349,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4136,16 +4357,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F17" s="11">
         <v>80</v>
@@ -4153,7 +4374,9 @@
       <c r="G17" s="11">
         <v>130</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11">
+        <v>140</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -4163,7 +4386,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="12">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4171,16 +4394,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F18" s="11">
         <v>90</v>
@@ -4188,7 +4411,9 @@
       <c r="G18" s="11">
         <v>130</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="11">
+        <v>140</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -4198,7 +4423,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4206,16 +4431,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F19" s="11">
         <v>90</v>
@@ -4223,7 +4448,9 @@
       <c r="G19" s="11">
         <v>130</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="11">
+        <v>140</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -4233,7 +4460,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -4241,16 +4468,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F20" s="11">
         <v>80</v>
@@ -4258,7 +4485,9 @@
       <c r="G20" s="11">
         <v>120</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>140</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -4268,7 +4497,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4276,16 +4505,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F21" s="11">
         <v>90</v>
@@ -4293,7 +4522,9 @@
       <c r="G21" s="11">
         <v>130</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11">
+        <v>140</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -4303,7 +4534,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4311,16 +4542,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F22" s="11">
         <v>90</v>
@@ -4328,7 +4559,9 @@
       <c r="G22" s="11">
         <v>130</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="11">
+        <v>120</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -4338,7 +4571,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4346,16 +4579,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F23" s="11">
         <v>80</v>
@@ -4363,7 +4596,9 @@
       <c r="G23" s="11">
         <v>120</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="11">
+        <v>140</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -4373,7 +4608,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4381,16 +4616,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F24" s="11">
         <v>90</v>
@@ -4398,7 +4633,9 @@
       <c r="G24" s="11">
         <v>130</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="11">
+        <v>30</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -4408,7 +4645,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4416,16 +4653,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F25" s="11">
         <v>90</v>
@@ -4433,7 +4670,9 @@
       <c r="G25" s="11">
         <v>130</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11">
+        <v>140</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -4443,7 +4682,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4451,16 +4690,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F26" s="11">
         <v>90</v>
@@ -4468,7 +4707,9 @@
       <c r="G26" s="11">
         <v>130</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11">
+        <v>140</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -4478,7 +4719,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4486,16 +4727,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="11">
         <v>90</v>
@@ -4503,7 +4744,9 @@
       <c r="G27" s="11">
         <v>110</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="11">
+        <v>140</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -4513,7 +4756,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4521,16 +4764,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F28" s="11">
         <v>90</v>
@@ -4538,7 +4781,9 @@
       <c r="G28" s="11">
         <v>130</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="11">
+        <v>140</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -4548,7 +4793,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4556,16 +4801,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F29" s="11">
         <v>90</v>
@@ -4573,7 +4818,9 @@
       <c r="G29" s="11">
         <v>130</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="11">
+        <v>140</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -4583,7 +4830,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4591,16 +4838,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F30" s="11">
         <v>90</v>
@@ -4608,7 +4855,9 @@
       <c r="G30" s="11">
         <v>130</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="11">
+        <v>140</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -4618,7 +4867,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4626,16 +4875,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F31" s="11">
         <v>90</v>
@@ -4643,7 +4892,9 @@
       <c r="G31" s="11">
         <v>130</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="11">
+        <v>140</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -4653,7 +4904,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4661,16 +4912,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F32" s="11">
         <v>90</v>
@@ -4678,7 +4929,9 @@
       <c r="G32" s="11">
         <v>130</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="11">
+        <v>140</v>
+      </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -4688,7 +4941,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4696,16 +4949,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F33" s="11">
         <v>90</v>
@@ -4713,7 +4966,9 @@
       <c r="G33" s="11">
         <v>130</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="11">
+        <v>140</v>
+      </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
@@ -4723,7 +4978,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -4731,16 +4986,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F34" s="11">
         <v>90</v>
@@ -4748,7 +5003,9 @@
       <c r="G34" s="11">
         <v>130</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="11">
+        <v>100</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -4758,7 +5015,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>106.66666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -4766,16 +5023,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F35" s="11">
         <v>90</v>
@@ -4783,7 +5040,9 @@
       <c r="G35" s="11">
         <v>130</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="11">
+        <v>140</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -4793,7 +5052,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4801,16 +5060,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F36" s="11">
         <v>90</v>
@@ -4818,7 +5077,9 @@
       <c r="G36" s="11">
         <v>130</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="11">
+        <v>140</v>
+      </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -4828,7 +5089,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -4836,16 +5097,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F37" s="11">
         <v>90</v>
@@ -4853,7 +5114,9 @@
       <c r="G37" s="11">
         <v>110</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="11">
+        <v>140</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -4863,7 +5126,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4871,16 +5134,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F38" s="11">
         <v>90</v>
@@ -4888,7 +5151,9 @@
       <c r="G38" s="11">
         <v>130</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="11">
+        <v>140</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -4898,7 +5163,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4906,16 +5171,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F39" s="11">
         <v>90</v>
@@ -4923,7 +5188,9 @@
       <c r="G39" s="11">
         <v>130</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="11">
+        <v>140</v>
+      </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
@@ -4933,7 +5200,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4941,16 +5208,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F40" s="11">
         <v>90</v>
@@ -4958,7 +5225,9 @@
       <c r="G40" s="11">
         <v>120</v>
       </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="11">
+        <v>140</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -4968,7 +5237,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="12">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -4976,16 +5245,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D41" s="7">
         <v>12017245812</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F41" s="11">
         <v>90</v>
@@ -4993,7 +5262,9 @@
       <c r="G41" s="11">
         <v>130</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11">
+        <v>20</v>
+      </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
@@ -5003,7 +5274,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="12">
         <f t="shared" ref="P41:P43" si="1">AVERAGE(F41:O41)</f>
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -5011,16 +5282,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D42" s="7">
         <v>12017245817</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F42" s="11">
         <v>90</v>
@@ -5028,7 +5299,9 @@
       <c r="G42" s="11">
         <v>110</v>
       </c>
-      <c r="H42" s="11"/>
+      <c r="H42" s="11">
+        <v>140</v>
+      </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -5038,7 +5311,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="12">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -5046,16 +5319,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D43" s="7">
         <v>12017245796</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F43" s="11">
         <v>90</v>
@@ -5063,7 +5336,9 @@
       <c r="G43" s="11">
         <v>110</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="11">
+        <v>20</v>
+      </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -5073,7 +5348,7 @@
       <c r="O43" s="11"/>
       <c r="P43" s="12">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -5094,7 +5369,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:F43 J4:J43 L33:L37 L39:L40 L42:L43 N4:N43 O4:O32 K4:M32 G4:I32" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:F43 J4:J43 L33:L37 L39:L40 L42:L43 N4:N43 O4:O32 K4:M32 G4:G32 I4:I32 H4:H42" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
@@ -5129,41 +5404,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -5196,16 +5471,16 @@
       <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
@@ -5236,23 +5511,23 @@
       <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="17"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D4" s="7">
         <v>12018246061</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F4" s="11">
         <v>70</v>
@@ -5276,16 +5551,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D5" s="7">
         <v>12018246065</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F5" s="11">
         <v>70</v>
@@ -5309,16 +5584,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="D6" s="7">
         <v>12018246067</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F6" s="11">
         <v>80</v>
@@ -5342,16 +5617,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D7" s="7">
         <v>12018246069</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F7" s="11">
         <v>70</v>
@@ -5375,16 +5650,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D8" s="7">
         <v>12018246071</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F8" s="11">
         <v>70</v>
@@ -5408,16 +5683,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D9" s="7">
         <v>12018246072</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="11">
         <v>70</v>
@@ -5441,16 +5716,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D10" s="7">
         <v>12018246073</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F10" s="11">
         <v>70</v>
@@ -5474,16 +5749,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
         <v>12018246074</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F11" s="11">
         <v>80</v>
@@ -5507,16 +5782,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D12" s="7">
         <v>12018246078</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F12" s="11">
         <v>70</v>
@@ -5540,16 +5815,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
         <v>12018246083</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F13" s="11">
         <v>70</v>
@@ -5573,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
         <v>12018246087</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F14" s="11">
         <v>70</v>
@@ -5606,16 +5881,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D15" s="7">
         <v>12018246089</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F15" s="11">
         <v>70</v>
@@ -5639,16 +5914,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D16" s="7">
         <v>12018246092</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F16" s="11">
         <v>70</v>
@@ -5672,16 +5947,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D17" s="7">
         <v>12018246095</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F17" s="11">
         <v>70</v>
@@ -5705,16 +5980,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D18" s="7">
         <v>12018246099</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F18" s="11">
         <v>70</v>
@@ -5738,16 +6013,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7">
         <v>12018246100</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F19" s="11">
         <v>70</v>
@@ -5771,16 +6046,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D20" s="7">
         <v>12018246101</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F20" s="11">
         <v>70</v>
@@ -5804,16 +6079,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D21" s="7">
         <v>12018246104</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F21" s="11">
         <v>70</v>
@@ -5837,16 +6112,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D22" s="7">
         <v>12018246105</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F22" s="11">
         <v>70</v>
@@ -5870,16 +6145,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D23" s="7">
         <v>12018246107</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F23" s="11">
         <v>70</v>
@@ -5903,16 +6178,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D24" s="7">
         <v>12018246108</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F24" s="11">
         <v>70</v>
@@ -5936,16 +6211,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D25" s="7">
         <v>12018246111</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F25" s="11">
         <v>70</v>
@@ -5969,16 +6244,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D26" s="7">
         <v>12018246113</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F26" s="11">
         <v>70</v>
@@ -6002,16 +6277,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D27" s="7">
         <v>12018246114</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" s="11">
         <v>70</v>
@@ -6035,16 +6310,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D28" s="7">
         <v>12018246126</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F28" s="11">
         <v>70</v>
@@ -6068,16 +6343,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D29" s="7">
         <v>12018246128</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F29" s="11">
         <v>50</v>
@@ -6101,16 +6376,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D30" s="7">
         <v>12018246133</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F30" s="11">
         <v>70</v>
@@ -6134,16 +6409,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D31" s="7">
         <v>12018246141</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F31" s="11">
         <v>70</v>
@@ -6167,16 +6442,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D32" s="7">
         <v>12018246146</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F32" s="11">
         <v>70</v>
@@ -6200,16 +6475,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D33" s="7">
         <v>12018246148</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F33" s="11">
         <v>70</v>
@@ -6233,16 +6508,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D34" s="7">
         <v>12018246151</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F34" s="11">
         <v>70</v>
@@ -6266,16 +6541,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D35" s="7">
         <v>12018246154</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F35" s="11">
         <v>80</v>
@@ -6299,16 +6574,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D36" s="7">
         <v>12018246155</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F36" s="11">
         <v>70</v>
@@ -6332,16 +6607,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D37" s="7">
         <v>12018246163</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F37" s="11">
         <v>70</v>
@@ -6365,16 +6640,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D38" s="7">
         <v>12018246165</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F38" s="11">
         <v>70</v>
@@ -6398,16 +6673,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D39" s="7">
         <v>12018246168</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F39" s="11">
         <v>70</v>
@@ -6431,16 +6706,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D40" s="7">
         <v>12018245775</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F40" s="11">
         <v>70</v>
@@ -6464,16 +6739,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D41" s="7">
         <v>12017245858</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F41" s="11">
         <v>70</v>
@@ -6497,16 +6772,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D42" s="7">
         <v>12017245867</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F42" s="11">
         <v>70</v>
@@ -6578,41 +6853,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -6645,16 +6920,16 @@
       <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
@@ -6685,23 +6960,23 @@
       <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="17"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D4" s="7">
         <v>12018246201</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F4" s="11">
         <v>70</v>
@@ -6725,16 +7000,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D5" s="7">
         <v>12018246204</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F5" s="11">
         <v>60</v>
@@ -6758,16 +7033,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="D6" s="7">
         <v>12018246206</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F6" s="11">
         <v>60</v>
@@ -6791,16 +7066,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D7" s="7">
         <v>12018246207</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F7" s="11">
         <v>70</v>
@@ -6824,16 +7099,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D8" s="7">
         <v>12018246208</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F8" s="11">
         <v>70</v>
@@ -6857,16 +7132,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D9" s="7">
         <v>12018246210</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F9" s="11">
         <v>60</v>
@@ -6890,16 +7165,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
         <v>12018246212</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F10" s="11">
         <v>50</v>
@@ -6923,16 +7198,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D11" s="7">
         <v>12018246215</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F11" s="11">
         <v>60</v>
@@ -6956,16 +7231,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D12" s="7">
         <v>12018246217</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F12" s="11">
         <v>40</v>
@@ -6989,16 +7264,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D13" s="7">
         <v>12018246219</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F13" s="11">
         <v>70</v>
@@ -7022,16 +7297,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D14" s="7">
         <v>12018246220</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F14" s="11">
         <v>80</v>
@@ -7055,16 +7330,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D15" s="7">
         <v>12018246221</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F15" s="11">
         <v>60</v>
@@ -7088,16 +7363,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D16" s="7">
         <v>12018246222</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F16" s="11">
         <v>70</v>
@@ -7121,16 +7396,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D17" s="7">
         <v>12018246223</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F17" s="11">
         <v>70</v>
@@ -7154,16 +7429,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D18" s="7">
         <v>12018246225</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="11">
         <v>50</v>
@@ -7187,16 +7462,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D19" s="7">
         <v>12018246227</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F19" s="11">
         <v>70</v>
@@ -7220,16 +7495,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D20" s="7">
         <v>12018246232</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="11">
         <v>80</v>
@@ -7253,16 +7528,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D21" s="7">
         <v>12018246233</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F21" s="11">
         <v>80</v>
@@ -7286,16 +7561,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D22" s="7">
         <v>12018246235</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F22" s="11">
         <v>70</v>
@@ -7319,16 +7594,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D23" s="7">
         <v>12018246238</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F23" s="11">
         <v>70</v>
@@ -7352,16 +7627,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D24" s="7">
         <v>12018246241</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F24" s="11">
         <v>60</v>
@@ -7385,16 +7660,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D25" s="7">
         <v>12018246244</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F25" s="11">
         <v>40</v>
@@ -7418,16 +7693,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D26" s="7">
         <v>12018246252</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F26" s="11">
         <v>60</v>
@@ -7451,16 +7726,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D27" s="7">
         <v>12018246255</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F27" s="11">
         <v>80</v>
@@ -7484,16 +7759,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D28" s="7">
         <v>12018246257</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F28" s="11">
         <v>70</v>
@@ -7517,16 +7792,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D29" s="7">
         <v>12018246261</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="11">
         <v>70</v>
@@ -7550,16 +7825,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D30" s="7">
         <v>12018246262</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F30" s="11">
         <v>80</v>
@@ -7583,16 +7858,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D31" s="7">
         <v>12018246263</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F31" s="11">
         <v>90</v>
@@ -7616,16 +7891,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D32" s="7">
         <v>12018246265</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F32" s="11">
         <v>70</v>
@@ -7649,16 +7924,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D33" s="7">
         <v>12018246267</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F33" s="11">
         <v>60</v>
@@ -7682,16 +7957,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D34" s="7">
         <v>12018246268</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F34" s="11">
         <v>70</v>
@@ -7715,16 +7990,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D35" s="7">
         <v>12018246269</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F35" s="11">
         <v>70</v>
@@ -7748,16 +8023,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D36" s="7">
         <v>12018245934</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F36" s="11">
         <v>70</v>
@@ -7781,16 +8056,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D37" s="7">
         <v>12018245921</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F37" s="11">
         <v>70</v>
@@ -7814,16 +8089,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D38" s="7">
         <v>12018245948</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F38" s="11">
         <v>70</v>
@@ -7847,16 +8122,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D39" s="7">
         <v>12018245917</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F39" s="11">
         <v>70</v>
@@ -7880,16 +8155,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D40" s="7">
         <v>12017246001</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F40" s="11">
         <v>60</v>
@@ -7913,16 +8188,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D41" s="7">
         <v>12017246053</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F41" s="11">
         <v>50</v>
@@ -7994,41 +8269,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -8061,16 +8336,16 @@
       <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="4">
         <v>46655</v>
       </c>
@@ -8101,23 +8376,23 @@
       <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="17"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F4" s="8">
         <v>70</v>
@@ -8141,16 +8416,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F5" s="8">
         <v>60</v>
@@ -8174,19 +8449,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -8207,16 +8482,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F7" s="8">
         <v>70</v>
@@ -8240,16 +8515,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F8" s="8">
         <v>60</v>
@@ -8273,16 +8548,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F9" s="8">
         <v>80</v>
@@ -8306,16 +8581,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F10" s="8">
         <v>80</v>
@@ -8339,16 +8614,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F11" s="8">
         <v>80</v>
@@ -8372,16 +8647,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F12" s="8">
         <v>60</v>
@@ -8405,16 +8680,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F13" s="8">
         <v>80</v>
@@ -8438,16 +8713,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8">
         <v>60</v>
@@ -8471,16 +8746,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F15" s="8">
         <v>70</v>
@@ -8504,16 +8779,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F16" s="8">
         <v>80</v>
@@ -8537,16 +8812,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F17" s="8">
         <v>70</v>
@@ -8570,16 +8845,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F18" s="8">
         <v>80</v>
@@ -8603,16 +8878,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="8">
         <v>60</v>
@@ -8636,16 +8911,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F20" s="8">
         <v>80</v>
@@ -8669,16 +8944,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F21" s="8">
         <v>80</v>
@@ -8702,16 +8977,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F22" s="8">
         <v>70</v>
@@ -8735,16 +9010,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F23" s="8">
         <v>70</v>
@@ -8768,16 +9043,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F24" s="8">
         <v>60</v>
@@ -8801,16 +9076,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" s="8">
         <v>70</v>
@@ -8834,16 +9109,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F26" s="8">
         <v>70</v>
@@ -8867,16 +9142,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F27" s="8">
         <v>80</v>
@@ -8900,16 +9175,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F28" s="8">
         <v>70</v>
@@ -8933,16 +9208,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F29" s="8">
         <v>60</v>
@@ -8966,16 +9241,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F30" s="8">
         <v>80</v>
@@ -8999,16 +9274,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F31" s="8">
         <v>80</v>
@@ -9032,16 +9307,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F32" s="8">
         <v>80</v>
@@ -9065,16 +9340,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F33" s="8">
         <v>80</v>
@@ -9098,16 +9373,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F34" s="8">
         <v>60</v>
@@ -9131,16 +9406,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F35" s="8">
         <v>60</v>
@@ -9164,16 +9439,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D36" s="7">
         <v>12018243770</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F36" s="8">
         <v>70</v>
@@ -9197,16 +9472,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D37" s="7">
         <v>12018246571</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F37" s="8">
         <v>80</v>
@@ -9230,19 +9505,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D38" s="7">
         <v>12018245904</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -9263,16 +9538,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D39" s="7">
         <v>12018246563</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F39" s="8">
         <v>80</v>

--- a/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20543" windowHeight="8820" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7270" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="468">
   <si>
     <t>Student Details</t>
   </si>
@@ -1436,13 +1436,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1475,21 +1475,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1500,9 +1487,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1524,21 +1518,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,9 +1548,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1565,29 +1560,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1607,18 +1579,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1636,8 +1600,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,7 +1675,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,7 +1795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,19 +1813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,139 +1849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,11 +1904,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,23 +1937,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1982,35 +1984,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,10 +2007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2032,146 +2019,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2231,10 +2218,7 @@
     <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2565,24 +2549,24 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" customWidth="1"/>
-    <col min="7" max="8" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="24.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="16.1090909090909" customWidth="1"/>
+    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="11.1090909090909" customWidth="1"/>
+    <col min="7" max="8" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.1090909090909" customWidth="1"/>
+    <col min="10" max="10" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.1090909090909" customWidth="1"/>
+    <col min="14" max="14" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2695,20 +2679,20 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" ht="15.6" spans="1:16">
+    <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>12018245753</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="19">
@@ -2728,20 +2712,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:16">
+    <row r="5" ht="16.5" spans="1:16">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>12018245759</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="19">
@@ -2761,20 +2745,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:16">
+    <row r="6" ht="16.5" spans="1:16">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>12018245772</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="19">
@@ -2794,20 +2778,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:16">
+    <row r="7" ht="16.5" spans="1:16">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>12018245785</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="19">
@@ -2827,20 +2811,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:16">
+    <row r="8" ht="16.5" spans="1:16">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>12018245851</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="19">
@@ -2860,20 +2844,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:16">
+    <row r="9" ht="16.5" spans="1:16">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>12018246051</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="19">
@@ -2893,20 +2877,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:16">
+    <row r="10" ht="16.5" spans="1:16">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>12018246053</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="19">
@@ -2926,20 +2910,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:16">
+    <row r="11" ht="16.5" spans="1:16">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>12018246054</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="19">
@@ -2959,20 +2943,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:16">
+    <row r="12" ht="16.5" spans="1:16">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>12018246059</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="19">
@@ -2992,20 +2976,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:16">
+    <row r="13" ht="16.5" spans="1:16">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>12018246063</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="19">
@@ -3025,20 +3009,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:16">
+    <row r="14" ht="16.5" spans="1:16">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>12018246070</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="19">
@@ -3058,20 +3042,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:16">
+    <row r="15" ht="16.5" spans="1:16">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>12018246079</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="19">
@@ -3091,20 +3075,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:16">
+    <row r="16" ht="16.5" spans="1:16">
       <c r="A16" s="13">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>12018246082</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="19">
@@ -3124,20 +3108,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:16">
+    <row r="17" ht="16.5" spans="1:16">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>12018246084</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="19">
@@ -3157,20 +3141,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:16">
+    <row r="18" ht="16.5" spans="1:16">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>12018246091</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="19">
@@ -3190,20 +3174,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:16">
+    <row r="19" ht="16.5" spans="1:16">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>12018246094</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="19">
@@ -3223,20 +3207,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:16">
+    <row r="20" ht="16.5" spans="1:16">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>12018246098</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="19">
@@ -3256,20 +3240,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:16">
+    <row r="21" ht="16.5" spans="1:16">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>12018246102</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="19">
@@ -3289,20 +3273,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:16">
+    <row r="22" ht="16.5" spans="1:16">
       <c r="A22" s="13">
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>12018246103</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="19">
@@ -3322,20 +3306,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:16">
+    <row r="23" ht="16.5" spans="1:16">
       <c r="A23" s="13">
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>12018246106</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="19">
@@ -3355,20 +3339,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:16">
+    <row r="24" ht="16.5" spans="1:16">
       <c r="A24" s="13">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>12018246109</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="19">
@@ -3388,20 +3372,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:16">
+    <row r="25" ht="16.5" spans="1:16">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>12018246110</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F25" s="19">
@@ -3421,20 +3405,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:16">
+    <row r="26" ht="16.5" spans="1:16">
       <c r="A26" s="13">
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>12018246112</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="19">
@@ -3454,20 +3438,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:16">
+    <row r="27" ht="16.5" spans="1:16">
       <c r="A27" s="13">
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>12018246115</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F27" s="19">
@@ -3487,20 +3471,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:16">
+    <row r="28" ht="16.5" spans="1:16">
       <c r="A28" s="13">
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>12018246121</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="19">
@@ -3520,20 +3504,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:16">
+    <row r="29" ht="16.5" spans="1:16">
       <c r="A29" s="13">
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>12018246124</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="19">
@@ -3553,20 +3537,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:16">
+    <row r="30" ht="16.5" spans="1:16">
       <c r="A30" s="13">
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>12018246125</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="19">
@@ -3586,20 +3570,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:16">
+    <row r="31" ht="16.5" spans="1:16">
       <c r="A31" s="13">
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>12018246127</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>75</v>
       </c>
       <c r="F31" s="19">
@@ -3619,20 +3603,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:16">
+    <row r="32" ht="16.5" spans="1:16">
       <c r="A32" s="13">
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>12018246129</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F32" s="19">
@@ -3652,20 +3636,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:16">
+    <row r="33" ht="16.5" spans="1:16">
       <c r="A33" s="13">
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>12018246135</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="19">
@@ -3685,20 +3669,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:16">
+    <row r="34" ht="16.5" spans="1:16">
       <c r="A34" s="13">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>12018246136</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="19">
@@ -3718,20 +3702,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:16">
+    <row r="35" ht="16.5" spans="1:16">
       <c r="A35" s="13">
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>12018246137</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="19">
@@ -3751,20 +3735,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:16">
+    <row r="36" ht="16.5" spans="1:16">
       <c r="A36" s="13">
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>12018246140</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F36" s="19"/>
@@ -3782,20 +3766,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:16">
+    <row r="37" ht="16.5" spans="1:16">
       <c r="A37" s="13">
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>12018246142</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="19">
@@ -3815,20 +3799,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:16">
+    <row r="38" ht="16.5" spans="1:16">
       <c r="A38" s="13">
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>12018246150</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>89</v>
       </c>
       <c r="F38" s="19">
@@ -3848,20 +3832,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:16">
+    <row r="39" ht="16.5" spans="1:16">
       <c r="A39" s="13">
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>12018246159</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>91</v>
       </c>
       <c r="F39" s="19">
@@ -3881,20 +3865,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:16">
+    <row r="40" ht="16.5" spans="1:16">
       <c r="A40" s="13">
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>12018246160</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>93</v>
       </c>
       <c r="F40" s="19">
@@ -3914,20 +3898,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:16">
+    <row r="41" ht="16.5" spans="1:16">
       <c r="A41" s="13">
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>12018246164</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>95</v>
       </c>
       <c r="F41" s="19">
@@ -3947,20 +3931,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="1:16">
+    <row r="42" ht="16.5" spans="1:16">
       <c r="A42" s="13">
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>12018246166</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>97</v>
       </c>
       <c r="F42" s="19">
@@ -3980,20 +3964,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:16">
+    <row r="43" ht="16.5" spans="1:16">
       <c r="A43" s="13">
         <v>40</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>12018246169</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>99</v>
       </c>
       <c r="F43" s="19">
@@ -4013,20 +3997,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:16">
+    <row r="44" ht="16.5" spans="1:16">
       <c r="A44" s="13">
         <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>12017245655</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F44" s="19">
@@ -4046,20 +4030,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:16">
+    <row r="45" ht="16.5" spans="1:16">
       <c r="A45" s="13">
         <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>12016246281</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="19">
@@ -4079,20 +4063,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:16">
+    <row r="46" ht="16.5" spans="1:16">
       <c r="A46" s="13">
         <v>43</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>12017245779</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>105</v>
       </c>
       <c r="F46" s="19">
@@ -4149,21 +4133,21 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
-    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
-    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="17.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
+    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
+    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4598,7 +4582,7 @@
       <c r="B13" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="14" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -5709,25 +5693,25 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
-    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
-    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
+    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
+    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7320,21 +7304,21 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
-    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
-    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
+    <col min="2" max="2" width="18.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
+    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
+    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8886,25 +8870,25 @@
   <sheetPr/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="9" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5555555555556" customWidth="1"/>
-    <col min="13" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="9" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5545454545455" customWidth="1"/>
+    <col min="13" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8986,13 +8970,13 @@
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12">
-        <v>46655</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>18</v>
+        <v>44099</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44105</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44112</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>18</v>
@@ -9036,8 +9020,12 @@
       <c r="F4" s="16">
         <v>70</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H4" s="16">
+        <v>66.67</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -9047,7 +9035,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="18">
         <f>AVERAGE(F4:O4)</f>
-        <v>70</v>
+        <v>74.4466666666667</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -9069,8 +9057,12 @@
       <c r="F5" s="16">
         <v>60</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H5" s="16">
+        <v>86.67</v>
+      </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -9080,7 +9072,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="18">
         <f t="shared" ref="P5:P39" si="0">AVERAGE(F5:O5)</f>
-        <v>60</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -9135,8 +9127,12 @@
       <c r="F7" s="16">
         <v>70</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H7" s="16">
+        <v>53.33</v>
+      </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -9168,8 +9164,12 @@
       <c r="F8" s="16">
         <v>60</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H8" s="16">
+        <v>86.67</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -9179,7 +9179,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -9201,8 +9201,12 @@
       <c r="F9" s="16">
         <v>80</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H9" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -9234,8 +9238,12 @@
       <c r="F10" s="16">
         <v>80</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H10" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -9267,8 +9275,12 @@
       <c r="F11" s="16">
         <v>80</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H11" s="16">
+        <v>60</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -9278,7 +9290,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75.5566666666667</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -9300,8 +9312,12 @@
       <c r="F12" s="16">
         <v>60</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H12" s="16">
+        <v>60</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -9311,7 +9327,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>68.89</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9333,8 +9349,12 @@
       <c r="F13" s="16">
         <v>80</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H13" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -9366,8 +9386,12 @@
       <c r="F14" s="16">
         <v>60</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="16">
+        <v>80</v>
+      </c>
+      <c r="H14" s="16">
+        <v>53.33</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -9377,7 +9401,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>64.4433333333333</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9399,8 +9423,12 @@
       <c r="F15" s="16">
         <v>70</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H15" s="16">
+        <v>53.33</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -9432,8 +9460,12 @@
       <c r="F16" s="16">
         <v>80</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="16">
+        <v>80</v>
+      </c>
+      <c r="H16" s="16">
+        <v>53.33</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -9443,7 +9475,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9465,8 +9497,12 @@
       <c r="F17" s="16">
         <v>70</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="G17" s="16">
+        <v>80</v>
+      </c>
+      <c r="H17" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -9476,7 +9512,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="18">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>74.4433333333333</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9498,8 +9534,12 @@
       <c r="F18" s="16">
         <v>80</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="16">
+        <v>66.67</v>
+      </c>
+      <c r="H18" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -9509,7 +9549,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>73.3333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9531,8 +9571,12 @@
       <c r="F19" s="16">
         <v>60</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H19" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -9542,7 +9586,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.3333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -9564,8 +9608,12 @@
       <c r="F20" s="16">
         <v>80</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="G20" s="16">
+        <v>80</v>
+      </c>
+      <c r="H20" s="16">
+        <v>86.67</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
@@ -9575,7 +9623,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82.2233333333333</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -9597,8 +9645,12 @@
       <c r="F21" s="16">
         <v>80</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="G21" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H21" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
@@ -9630,8 +9682,12 @@
       <c r="F22" s="16">
         <v>70</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="16">
+        <v>80</v>
+      </c>
+      <c r="H22" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
@@ -9641,7 +9697,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="18">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>74.4433333333333</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9663,8 +9719,12 @@
       <c r="F23" s="16">
         <v>70</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="16">
+        <v>93.33</v>
+      </c>
+      <c r="H23" s="16">
+        <v>46.67</v>
+      </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -9696,8 +9756,12 @@
       <c r="F24" s="16">
         <v>60</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="G24" s="16">
+        <v>80</v>
+      </c>
+      <c r="H24" s="16">
+        <v>86.67</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -9707,7 +9771,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75.5566666666667</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9729,8 +9793,12 @@
       <c r="F25" s="16">
         <v>70</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H25" s="16">
+        <v>53.33</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
@@ -9762,8 +9830,12 @@
       <c r="F26" s="16">
         <v>70</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="G26" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H26" s="16">
+        <v>80</v>
+      </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
@@ -9773,7 +9845,7 @@
       <c r="O26" s="16"/>
       <c r="P26" s="18">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>78.89</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -9795,8 +9867,12 @@
       <c r="F27" s="16">
         <v>80</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="16">
+        <v>80</v>
+      </c>
+      <c r="H27" s="16">
+        <v>86.67</v>
+      </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
@@ -9806,7 +9882,7 @@
       <c r="O27" s="16"/>
       <c r="P27" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82.2233333333333</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -9828,8 +9904,12 @@
       <c r="F28" s="16">
         <v>70</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="G28" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H28" s="16">
+        <v>53.33</v>
+      </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
@@ -9861,8 +9941,12 @@
       <c r="F29" s="16">
         <v>60</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="G29" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H29" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
@@ -9872,7 +9956,7 @@
       <c r="O29" s="16"/>
       <c r="P29" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.3333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -9894,8 +9978,12 @@
       <c r="F30" s="16">
         <v>80</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="G30" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H30" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
@@ -9927,8 +10015,12 @@
       <c r="F31" s="16">
         <v>80</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="16">
+        <v>93.33</v>
+      </c>
+      <c r="H31" s="16">
+        <v>53.33</v>
+      </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
@@ -9938,7 +10030,7 @@
       <c r="O31" s="16"/>
       <c r="P31" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75.5533333333333</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -9960,8 +10052,12 @@
       <c r="F32" s="16">
         <v>80</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="G32" s="16">
+        <v>80</v>
+      </c>
+      <c r="H32" s="16">
+        <v>86.67</v>
+      </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
@@ -9971,7 +10067,7 @@
       <c r="O32" s="16"/>
       <c r="P32" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82.2233333333333</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -9993,8 +10089,12 @@
       <c r="F33" s="16">
         <v>80</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="G33" s="16">
+        <v>80</v>
+      </c>
+      <c r="H33" s="16">
+        <v>86.67</v>
+      </c>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -10004,7 +10104,7 @@
       <c r="O33" s="16"/>
       <c r="P33" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82.2233333333333</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -10026,8 +10126,12 @@
       <c r="F34" s="16">
         <v>60</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="G34" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H34" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
@@ -10037,7 +10141,7 @@
       <c r="O34" s="16"/>
       <c r="P34" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.3333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -10059,8 +10163,12 @@
       <c r="F35" s="16">
         <v>60</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="G35" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H35" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
@@ -10070,7 +10178,7 @@
       <c r="O35" s="16"/>
       <c r="P35" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.3333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -10092,8 +10200,12 @@
       <c r="F36" s="16">
         <v>70</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="16">
+        <v>80</v>
+      </c>
+      <c r="H36" s="16">
+        <v>60</v>
+      </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
@@ -10125,8 +10237,12 @@
       <c r="F37" s="16">
         <v>80</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="G37" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H37" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
@@ -10191,8 +10307,12 @@
       <c r="F39" s="16">
         <v>80</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="16">
+        <v>86.67</v>
+      </c>
+      <c r="H39" s="16">
+        <v>73.33</v>
+      </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>

--- a/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270" activeTab="4"/>
+    <workbookView windowWidth="20328" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="469">
   <si>
     <t>Student Details</t>
   </si>
@@ -829,6 +829,9 @@
   </si>
   <si>
     <t>杨彦曦</t>
+  </si>
+  <si>
+    <t>休学</t>
   </si>
   <si>
     <t>刘晗</t>
@@ -1436,13 +1439,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,38 +1477,37 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,6 +1522,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1527,15 +1537,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,21 +1560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,7 +1568,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,9 +1597,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1602,43 +1627,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1683,7 +1678,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,19 +1708,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,13 +1780,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,127 +1846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,10 +1907,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1930,23 +1936,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1967,30 +1958,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2005,13 +1972,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2021,10 +2010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2033,146 +2022,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2232,10 +2221,7 @@
     <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2562,28 +2548,28 @@
   <sheetPr/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
-    <col min="2" max="2" width="24.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.1090909090909" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.1090909090909" customWidth="1"/>
-    <col min="7" max="8" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1090909090909" customWidth="1"/>
-    <col min="10" max="10" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.1090909090909" customWidth="1"/>
-    <col min="14" max="14" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" customWidth="1"/>
+    <col min="7" max="8" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2696,20 +2682,20 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:16">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>12018245753</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="19">
@@ -2747,20 +2733,20 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:16">
+    <row r="5" ht="15.6" spans="1:16">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>12018245759</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="19">
@@ -2798,20 +2784,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" ht="15.6" spans="1:16">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>12018245772</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="19">
@@ -2849,20 +2835,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:16">
+    <row r="7" ht="15.6" spans="1:16">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>12018245785</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="19">
@@ -2900,20 +2886,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:16">
+    <row r="8" ht="15.6" spans="1:16">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>12018245851</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="19">
@@ -2951,20 +2937,20 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
+    <row r="9" ht="15.6" spans="1:16">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>12018246051</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="19">
@@ -3002,20 +2988,20 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:16">
+    <row r="10" ht="15.6" spans="1:16">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>12018246053</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="19">
@@ -3053,20 +3039,20 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:16">
+    <row r="11" ht="15.6" spans="1:16">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>12018246054</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="19">
@@ -3104,20 +3090,20 @@
         <v>86.01</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
+    <row r="12" ht="15.6" spans="1:16">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>12018246059</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="19">
@@ -3155,20 +3141,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:16">
+    <row r="13" ht="15.6" spans="1:16">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>12018246063</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="19">
@@ -3206,20 +3192,20 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
+    <row r="14" ht="15.6" spans="1:16">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>12018246070</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="19">
@@ -3257,20 +3243,20 @@
         <v>88.68</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:16">
+    <row r="15" ht="15.6" spans="1:16">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>12018246079</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="19">
@@ -3308,20 +3294,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:16">
+    <row r="16" ht="15.6" spans="1:16">
       <c r="A16" s="13">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>12018246082</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="19">
@@ -3359,20 +3345,20 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:16">
+    <row r="17" ht="15.6" spans="1:16">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>12018246084</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="19">
@@ -3410,20 +3396,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:16">
+    <row r="18" ht="15.6" spans="1:16">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>12018246091</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="19">
@@ -3461,20 +3447,20 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:16">
+    <row r="19" ht="15.6" spans="1:16">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>12018246094</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="19">
@@ -3512,20 +3498,20 @@
         <v>86.67</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:16">
+    <row r="20" ht="15.6" spans="1:16">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>12018246098</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="19">
@@ -3563,20 +3549,20 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:16">
+    <row r="21" ht="15.6" spans="1:16">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>12018246102</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="19">
@@ -3614,20 +3600,20 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:16">
+    <row r="22" ht="15.6" spans="1:16">
       <c r="A22" s="13">
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>12018246103</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="19">
@@ -3665,20 +3651,20 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:16">
+    <row r="23" ht="15.6" spans="1:16">
       <c r="A23" s="13">
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>12018246106</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="19">
@@ -3716,20 +3702,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:16">
+    <row r="24" ht="15.6" spans="1:16">
       <c r="A24" s="13">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>12018246109</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="19">
@@ -3767,20 +3753,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:16">
+    <row r="25" ht="15.6" spans="1:16">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>12018246110</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="19">
@@ -3818,20 +3804,20 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:16">
+    <row r="26" ht="15.6" spans="1:16">
       <c r="A26" s="13">
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>12018246112</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>64</v>
       </c>
       <c r="F26" s="19">
@@ -3869,20 +3855,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:16">
+    <row r="27" ht="15.6" spans="1:16">
       <c r="A27" s="13">
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>12018246115</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="19">
@@ -3920,20 +3906,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:16">
+    <row r="28" ht="15.6" spans="1:16">
       <c r="A28" s="13">
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>12018246121</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="19">
@@ -3971,20 +3957,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:16">
+    <row r="29" ht="15.6" spans="1:16">
       <c r="A29" s="13">
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>12018246124</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F29" s="19">
@@ -4022,20 +4008,20 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:16">
+    <row r="30" ht="15.6" spans="1:16">
       <c r="A30" s="13">
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>12018246125</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="19">
@@ -4073,20 +4059,20 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:16">
+    <row r="31" ht="15.6" spans="1:16">
       <c r="A31" s="13">
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>12018246127</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="19">
@@ -4124,20 +4110,20 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:16">
+    <row r="32" ht="15.6" spans="1:16">
       <c r="A32" s="13">
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>12018246129</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F32" s="19">
@@ -4175,20 +4161,20 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:16">
+    <row r="33" ht="15.6" spans="1:16">
       <c r="A33" s="13">
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>12018246135</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>78</v>
       </c>
       <c r="F33" s="19">
@@ -4226,20 +4212,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:16">
+    <row r="34" ht="15.6" spans="1:16">
       <c r="A34" s="13">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>12018246136</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F34" s="19">
@@ -4277,20 +4263,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:16">
+    <row r="35" ht="15.6" spans="1:16">
       <c r="A35" s="13">
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>12018246137</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F35" s="19">
@@ -4328,20 +4314,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:16">
+    <row r="36" ht="15.6" spans="1:16">
       <c r="A36" s="13">
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>12018246140</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="19"/>
@@ -4359,20 +4345,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:16">
+    <row r="37" ht="15.6" spans="1:16">
       <c r="A37" s="13">
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>12018246142</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="19">
@@ -4410,20 +4396,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:16">
+    <row r="38" ht="15.6" spans="1:16">
       <c r="A38" s="13">
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>12018246150</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="19">
@@ -4461,20 +4447,20 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:16">
+    <row r="39" ht="15.6" spans="1:16">
       <c r="A39" s="13">
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>12018246159</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>90</v>
       </c>
       <c r="F39" s="19">
@@ -4512,20 +4498,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:16">
+    <row r="40" ht="15.6" spans="1:16">
       <c r="A40" s="13">
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>12018246160</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>92</v>
       </c>
       <c r="F40" s="19">
@@ -4563,20 +4549,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:16">
+    <row r="41" ht="15.6" spans="1:16">
       <c r="A41" s="13">
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>12018246164</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="19">
@@ -4614,20 +4600,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:16">
+    <row r="42" ht="15.6" spans="1:16">
       <c r="A42" s="13">
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>12018246166</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F42" s="19">
@@ -4665,20 +4651,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:16">
+    <row r="43" ht="15.6" spans="1:16">
       <c r="A43" s="13">
         <v>40</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>12018246169</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="19">
@@ -4716,20 +4702,20 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:16">
+    <row r="44" ht="15.6" spans="1:16">
       <c r="A44" s="13">
         <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>12017245655</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>100</v>
       </c>
       <c r="F44" s="19">
@@ -4767,20 +4753,20 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:16">
+    <row r="45" ht="15.6" spans="1:16">
       <c r="A45" s="13">
         <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>12016246281</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>102</v>
       </c>
       <c r="F45" s="19">
@@ -4818,20 +4804,20 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:16">
+    <row r="46" ht="15.6" spans="1:16">
       <c r="A46" s="13">
         <v>43</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>12017245779</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>104</v>
       </c>
       <c r="F46" s="19">
@@ -4906,21 +4892,21 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="17.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
-    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
-    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
+    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5028,7 +5014,7 @@
       <c r="N3" s="12">
         <v>44150</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="12">
         <v>44157</v>
       </c>
       <c r="P3" s="9"/>
@@ -7107,24 +7093,24 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="F3" sqref="F3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
-    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
-    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
+    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7205,26 +7191,26 @@
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>220</v>
+      <c r="F3" s="12">
+        <v>44099</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44105</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44112</v>
+      </c>
+      <c r="I3" s="12">
+        <v>44137</v>
+      </c>
+      <c r="J3" s="12">
+        <v>44141</v>
+      </c>
+      <c r="K3" s="12">
+        <v>44162</v>
+      </c>
+      <c r="L3" s="12">
+        <v>44166</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>220</v>
@@ -7268,14 +7254,18 @@
       <c r="J4" s="19">
         <v>95</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="19">
+        <v>80</v>
+      </c>
+      <c r="L4" s="19">
+        <v>60</v>
+      </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="20">
         <f t="shared" ref="P4:P42" si="0">AVERAGE(F4:O4)</f>
-        <v>86.36</v>
+        <v>81.6857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7309,14 +7299,18 @@
       <c r="J5" s="19">
         <v>95</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="19">
+        <v>80</v>
+      </c>
+      <c r="L5" s="19">
+        <v>80</v>
+      </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>84.5428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7350,14 +7344,18 @@
       <c r="J6" s="19">
         <v>95</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="19">
+        <v>80</v>
+      </c>
+      <c r="L6" s="19">
+        <v>80</v>
+      </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="20">
         <f t="shared" si="0"/>
-        <v>89.68</v>
+        <v>86.9142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7391,14 +7389,18 @@
       <c r="J7" s="19">
         <v>100</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="19">
+        <v>80</v>
+      </c>
+      <c r="L7" s="19">
+        <v>80</v>
+      </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="20">
         <f t="shared" si="0"/>
-        <v>82.68</v>
+        <v>81.9142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7432,14 +7434,18 @@
       <c r="J8" s="19">
         <v>95</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="19">
+        <v>80</v>
+      </c>
+      <c r="L8" s="19">
+        <v>80</v>
+      </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>84.5428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7473,14 +7479,18 @@
       <c r="J9" s="19">
         <v>95</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="19">
+        <v>80</v>
+      </c>
+      <c r="L9" s="19">
+        <v>80</v>
+      </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="20">
         <f t="shared" si="0"/>
-        <v>85.02</v>
+        <v>83.5857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7514,14 +7524,18 @@
       <c r="J10" s="19">
         <v>100</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="19">
+        <v>80</v>
+      </c>
+      <c r="L10" s="19">
+        <v>80</v>
+      </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="20">
         <f t="shared" si="0"/>
-        <v>88.68</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7555,14 +7569,18 @@
       <c r="J11" s="19">
         <v>95</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="19">
+        <v>80</v>
+      </c>
+      <c r="L11" s="19">
+        <v>60</v>
+      </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="20">
         <f t="shared" si="0"/>
-        <v>83.68</v>
+        <v>79.7714285714286</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7596,14 +7614,18 @@
       <c r="J12" s="19">
         <v>95</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="19">
+        <v>80</v>
+      </c>
+      <c r="L12" s="19">
+        <v>80</v>
+      </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>84.5428571428571</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7637,14 +7659,18 @@
       <c r="J13" s="19">
         <v>100</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="K13" s="19">
+        <v>80</v>
+      </c>
+      <c r="L13" s="19">
+        <v>80</v>
+      </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="20">
         <f t="shared" si="0"/>
-        <v>88.68</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7678,14 +7704,18 @@
       <c r="J14" s="19">
         <v>95</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="K14" s="19">
+        <v>80</v>
+      </c>
+      <c r="L14" s="19">
+        <v>80</v>
+      </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="20">
         <f t="shared" si="0"/>
-        <v>87.68</v>
+        <v>85.4857142857143</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7719,14 +7749,18 @@
       <c r="J15" s="19">
         <v>95</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="19">
+        <v>80</v>
+      </c>
+      <c r="L15" s="19">
+        <v>80</v>
+      </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="20">
         <f t="shared" si="0"/>
-        <v>83.68</v>
+        <v>82.6285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7760,14 +7794,18 @@
       <c r="J16" s="19">
         <v>95</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="K16" s="19">
+        <v>80</v>
+      </c>
+      <c r="L16" s="19">
+        <v>80</v>
+      </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>84.5428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -7801,14 +7839,18 @@
       <c r="J17" s="19">
         <v>100</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="K17" s="19">
+        <v>80</v>
+      </c>
+      <c r="L17" s="19">
+        <v>80</v>
+      </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="20">
         <f t="shared" si="0"/>
-        <v>84.68</v>
+        <v>83.3428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -7842,14 +7884,18 @@
       <c r="J18" s="19">
         <v>95</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="19">
+        <v>80</v>
+      </c>
+      <c r="L18" s="19">
+        <v>80</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>84.5428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -7883,14 +7929,18 @@
       <c r="J19" s="19">
         <v>95</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="19">
+        <v>80</v>
+      </c>
+      <c r="L19" s="19">
+        <v>70</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="20">
         <f t="shared" si="0"/>
-        <v>81.02</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7924,14 +7974,18 @@
       <c r="J20" s="19">
         <v>95</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="19">
+        <v>80</v>
+      </c>
+      <c r="L20" s="19">
+        <v>80</v>
+      </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="20">
         <f t="shared" si="0"/>
-        <v>87.68</v>
+        <v>85.4857142857143</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -7965,14 +8019,18 @@
       <c r="J21" s="19">
         <v>100</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="19">
+        <v>80</v>
+      </c>
+      <c r="L21" s="19">
+        <v>80</v>
+      </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="20">
         <f t="shared" si="0"/>
-        <v>87.34</v>
+        <v>85.2428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -8006,14 +8064,18 @@
       <c r="J22" s="19">
         <v>95</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="K22" s="19">
+        <v>80</v>
+      </c>
+      <c r="L22" s="19">
+        <v>80</v>
+      </c>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>84.5428571428571</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -8047,14 +8109,18 @@
       <c r="J23" s="19">
         <v>100</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="K23" s="19">
+        <v>80</v>
+      </c>
+      <c r="L23" s="19">
+        <v>80</v>
+      </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="20">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>81.4285714285714</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -8088,14 +8154,18 @@
       <c r="J24" s="19">
         <v>95</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="K24" s="19">
+        <v>80</v>
+      </c>
+      <c r="L24" s="19">
+        <v>60</v>
+      </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>81.6857142857143</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -8129,14 +8199,18 @@
       <c r="J25" s="19">
         <v>95</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="K25" s="19">
+        <v>80</v>
+      </c>
+      <c r="L25" s="19">
+        <v>80</v>
+      </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="20">
         <f t="shared" si="0"/>
-        <v>84.34</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -8170,14 +8244,18 @@
       <c r="J26" s="19">
         <v>100</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="K26" s="19">
+        <v>80</v>
+      </c>
+      <c r="L26" s="19">
+        <v>80</v>
+      </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="20">
         <f t="shared" si="0"/>
-        <v>88.68</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -8202,23 +8280,27 @@
       <c r="G27" s="19">
         <v>93.4</v>
       </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="19">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>0</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="H27" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" s="19">
+        <v>80</v>
+      </c>
+      <c r="L27" s="19">
+        <v>80</v>
+      </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="20">
         <f t="shared" si="0"/>
-        <v>32.68</v>
+        <v>80.85</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -8229,13 +8311,13 @@
         <v>221</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D28" s="15">
         <v>12018246126</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F28" s="19">
         <v>70</v>
@@ -8252,14 +8334,18 @@
       <c r="J28" s="19">
         <v>100</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="19">
+        <v>80</v>
+      </c>
+      <c r="L28" s="19">
+        <v>80</v>
+      </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="20">
         <f t="shared" si="0"/>
-        <v>88.68</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -8270,7 +8356,7 @@
         <v>221</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D29" s="15">
         <v>12018246548</v>
@@ -8293,14 +8379,18 @@
       <c r="J29" s="19">
         <v>100</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="K29" s="19">
+        <v>80</v>
+      </c>
+      <c r="L29" s="19">
+        <v>80</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="20">
         <f t="shared" si="0"/>
-        <v>73.34</v>
+        <v>75.2428571428571</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -8311,7 +8401,7 @@
         <v>221</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D30" s="15">
         <v>12018246133</v>
@@ -8334,14 +8424,18 @@
       <c r="J30" s="19">
         <v>90</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="K30" s="19">
+        <v>80</v>
+      </c>
+      <c r="L30" s="19">
+        <v>60</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="20">
         <f t="shared" si="0"/>
-        <v>85.36</v>
+        <v>80.9714285714286</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -8352,13 +8446,13 @@
         <v>221</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="15">
         <v>12018246141</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F31" s="19">
         <v>70</v>
@@ -8375,14 +8469,18 @@
       <c r="J31" s="19">
         <v>95</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="K31" s="19">
+        <v>80</v>
+      </c>
+      <c r="L31" s="19">
+        <v>80</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="20">
         <f t="shared" si="0"/>
-        <v>85.02</v>
+        <v>83.5857142857143</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -8393,13 +8491,13 @@
         <v>221</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D32" s="15">
         <v>12018246146</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F32" s="19">
         <v>70</v>
@@ -8416,14 +8514,18 @@
       <c r="J32" s="19">
         <v>95</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="K32" s="19">
+        <v>80</v>
+      </c>
+      <c r="L32" s="19">
+        <v>70</v>
+      </c>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="20">
         <f t="shared" si="0"/>
-        <v>81.02</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -8434,13 +8536,13 @@
         <v>221</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D33" s="15">
         <v>12018246148</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F33" s="19">
         <v>70</v>
@@ -8457,14 +8559,18 @@
       <c r="J33" s="19">
         <v>100</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="K33" s="19">
+        <v>80</v>
+      </c>
+      <c r="L33" s="19">
+        <v>80</v>
+      </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="20">
         <f t="shared" si="0"/>
-        <v>84.02</v>
+        <v>82.8714285714286</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -8475,13 +8581,13 @@
         <v>221</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D34" s="15">
         <v>12018246151</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F34" s="19">
         <v>70</v>
@@ -8498,14 +8604,18 @@
       <c r="J34" s="19">
         <v>100</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="K34" s="19">
+        <v>80</v>
+      </c>
+      <c r="L34" s="19">
+        <v>80</v>
+      </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="20">
         <f t="shared" si="0"/>
-        <v>84.68</v>
+        <v>83.3428571428571</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -8516,13 +8626,13 @@
         <v>221</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D35" s="15">
         <v>12018246154</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F35" s="19">
         <v>80</v>
@@ -8539,14 +8649,18 @@
       <c r="J35" s="19">
         <v>100</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="K35" s="19">
+        <v>80</v>
+      </c>
+      <c r="L35" s="19">
+        <v>80</v>
+      </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="20">
         <f t="shared" si="0"/>
-        <v>90.68</v>
+        <v>87.6285714285714</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -8557,13 +8671,13 @@
         <v>221</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D36" s="15">
         <v>12018246155</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F36" s="19">
         <v>70</v>
@@ -8580,14 +8694,18 @@
       <c r="J36" s="19">
         <v>95</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="K36" s="19">
+        <v>80</v>
+      </c>
+      <c r="L36" s="19">
+        <v>80</v>
+      </c>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="20">
         <f t="shared" si="0"/>
-        <v>86.36</v>
+        <v>84.5428571428571</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -8598,7 +8716,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D37" s="15">
         <v>12018246163</v>
@@ -8621,14 +8739,18 @@
       <c r="J37" s="19">
         <v>100</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="K37" s="19">
+        <v>80</v>
+      </c>
+      <c r="L37" s="19">
+        <v>80</v>
+      </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="20">
         <f t="shared" si="0"/>
-        <v>88.66</v>
+        <v>86.1857142857143</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -8639,13 +8761,13 @@
         <v>221</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D38" s="15">
         <v>12018246165</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F38" s="19">
         <v>70</v>
@@ -8662,14 +8784,18 @@
       <c r="J38" s="19">
         <v>95</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
+      <c r="K38" s="19">
+        <v>80</v>
+      </c>
+      <c r="L38" s="19">
+        <v>80</v>
+      </c>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="20">
         <f t="shared" si="0"/>
-        <v>85.68</v>
+        <v>84.0571428571428</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -8680,13 +8806,13 @@
         <v>221</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D39" s="15">
         <v>12018246168</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F39" s="19">
         <v>70</v>
@@ -8703,14 +8829,18 @@
       <c r="J39" s="19">
         <v>100</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
+      <c r="K39" s="19">
+        <v>80</v>
+      </c>
+      <c r="L39" s="19">
+        <v>80</v>
+      </c>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="20">
         <f t="shared" si="0"/>
-        <v>87.36</v>
+        <v>85.2571428571429</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -8721,13 +8851,13 @@
         <v>221</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D40" s="15">
         <v>12018245775</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F40" s="19">
         <v>70</v>
@@ -8744,14 +8874,18 @@
       <c r="J40" s="19">
         <v>100</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
+      <c r="K40" s="19">
+        <v>80</v>
+      </c>
+      <c r="L40" s="19">
+        <v>80</v>
+      </c>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
       <c r="P40" s="20">
         <f t="shared" si="0"/>
-        <v>84.68</v>
+        <v>83.3428571428571</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -8762,13 +8896,13 @@
         <v>221</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D41" s="15">
         <v>12017245858</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F41" s="19">
         <v>70</v>
@@ -8785,14 +8919,18 @@
       <c r="J41" s="19">
         <v>95</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="K41" s="19">
+        <v>80</v>
+      </c>
+      <c r="L41" s="19">
+        <v>80</v>
+      </c>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
       <c r="P41" s="20">
         <f t="shared" si="0"/>
-        <v>83.02</v>
+        <v>82.1571428571429</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -8803,13 +8941,13 @@
         <v>221</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D42" s="15">
         <v>12017245867</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F42" s="19">
         <v>70</v>
@@ -8826,14 +8964,18 @@
       <c r="J42" s="19">
         <v>95</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
+      <c r="K42" s="19">
+        <v>80</v>
+      </c>
+      <c r="L42" s="19">
+        <v>80</v>
+      </c>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
       <c r="P42" s="20">
         <f t="shared" si="0"/>
-        <v>84.36</v>
+        <v>83.1142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -8854,9 +8996,9 @@
     <mergeCell ref="P2:P3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:I4 K4:O4 F5:G5 H5 I5 K5:O5 F8 G8 H8 I8 K8:O8 F9:I9 K9:O9 F12 G12 H12 K12:O12 F16:G16 H16 K16:O16 F19:G19 H19 K19:O19 F24:G24 H24 K24:O24 I10:I42 J4:J42 L33:L37 L39:L40 F10:H11 F25:H32 F20:H23 F17:H18 F13:H15 F6:I7 K6:O7 K10:O11 K25:O32 K20:O23 K17:O18 K13:O15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:I4 M4:O4 F5:G5 H5 I5 M5:O5 F8 G8 H8 I8 M8:O8 F9:I9 M9:O9 F12 G12 H12 M12:O12 F16:G16 H16 M16:O16 F19:G19 H19 M19:O19 F24:G24 H24 M24:O24 F27:G27 H27:J27 I10:I26 I28:I42 J4:J26 J28:J42 K4:K42 L4:L42 F10:H11 F20:H23 F17:H18 F25:H26 F13:H15 F6:I7 F28:H32 M6:O7 M10:O11 M25:O32 M20:O23 M17:O18 M13:O15"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:H3 I3:O3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -8869,25 +9011,25 @@
   <sheetPr/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="18.3363636363636" customWidth="1"/>
-    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
-    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
-    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
+    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8968,26 +9110,26 @@
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>220</v>
+      <c r="F3" s="12">
+        <v>44099</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44105</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44112</v>
+      </c>
+      <c r="I3" s="12">
+        <v>44137</v>
+      </c>
+      <c r="J3" s="12">
+        <v>44141</v>
+      </c>
+      <c r="K3" s="12">
+        <v>44162</v>
+      </c>
+      <c r="L3" s="12">
+        <v>44166</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>220</v>
@@ -9005,16 +9147,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D4" s="15">
         <v>12018246201</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F4" s="19">
         <v>70</v>
@@ -9031,14 +9173,18 @@
       <c r="J4" s="19">
         <v>100</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="19">
+        <v>90</v>
+      </c>
+      <c r="L4" s="19">
+        <v>60</v>
+      </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="20">
         <f t="shared" ref="P4:P39" si="0">AVERAGE(F4:O4)</f>
-        <v>89.36</v>
+        <v>85.2571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -9046,16 +9192,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D5" s="15">
         <v>12018246204</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F5" s="19">
         <v>60</v>
@@ -9072,14 +9218,18 @@
       <c r="J5" s="19">
         <v>90</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="19">
+        <v>70</v>
+      </c>
+      <c r="L5" s="19">
+        <v>70</v>
+      </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="20">
         <f t="shared" si="0"/>
-        <v>78.02</v>
+        <v>75.7285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -9087,16 +9237,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D6" s="15">
         <v>12018246206</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F6" s="19">
         <v>60</v>
@@ -9113,14 +9263,18 @@
       <c r="J6" s="19">
         <v>85</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="19">
+        <v>60</v>
+      </c>
+      <c r="L6" s="19">
+        <v>80</v>
+      </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="20">
         <f t="shared" si="0"/>
-        <v>69.68</v>
+        <v>69.7714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -9128,16 +9282,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D7" s="15">
         <v>12018246207</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F7" s="19">
         <v>70</v>
@@ -9154,14 +9308,18 @@
       <c r="J7" s="19">
         <v>90</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="19">
+        <v>80</v>
+      </c>
+      <c r="L7" s="19">
+        <v>70</v>
+      </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="20">
         <f t="shared" si="0"/>
-        <v>80.02</v>
+        <v>78.5857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -9169,16 +9327,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D8" s="15">
         <v>12018246208</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F8" s="19">
         <v>70</v>
@@ -9195,14 +9353,18 @@
       <c r="J8" s="19">
         <v>90</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="19">
+        <v>70</v>
+      </c>
+      <c r="L8" s="19">
+        <v>80</v>
+      </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="20">
         <f t="shared" si="0"/>
-        <v>77.34</v>
+        <v>76.6714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -9210,16 +9372,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D9" s="15">
         <v>12018246210</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F9" s="19">
         <v>60</v>
@@ -9236,14 +9398,18 @@
       <c r="J9" s="19">
         <v>85</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="19">
+        <v>60</v>
+      </c>
+      <c r="L9" s="19">
+        <v>80</v>
+      </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="20">
         <f t="shared" si="0"/>
-        <v>75.68</v>
+        <v>74.0571428571428</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -9251,16 +9417,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D10" s="15">
         <v>12018246212</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F10" s="19">
         <v>50</v>
@@ -9277,14 +9443,18 @@
       <c r="J10" s="19">
         <v>85</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="19">
+        <v>70</v>
+      </c>
+      <c r="L10" s="19">
+        <v>80</v>
+      </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="20">
         <f t="shared" si="0"/>
-        <v>77.02</v>
+        <v>76.4428571428572</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -9292,16 +9462,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D11" s="15">
         <v>12018246215</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F11" s="19">
         <v>60</v>
@@ -9318,14 +9488,18 @@
       <c r="J11" s="19">
         <v>90</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="19">
+        <v>80</v>
+      </c>
+      <c r="L11" s="19">
+        <v>70</v>
+      </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="20">
         <f t="shared" si="0"/>
-        <v>78.02</v>
+        <v>77.1571428571429</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -9333,16 +9507,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D12" s="15">
         <v>12018246217</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F12" s="19">
         <v>40</v>
@@ -9359,14 +9533,18 @@
       <c r="J12" s="19">
         <v>100</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="19">
+        <v>80</v>
+      </c>
+      <c r="L12" s="19">
+        <v>80</v>
+      </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="20">
         <f t="shared" si="0"/>
-        <v>72.68</v>
+        <v>74.7714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9374,16 +9552,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D13" s="15">
         <v>12018246219</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F13" s="19">
         <v>70</v>
@@ -9400,14 +9578,18 @@
       <c r="J13" s="19">
         <v>90</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="K13" s="19">
+        <v>80</v>
+      </c>
+      <c r="L13" s="19">
+        <v>80</v>
+      </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="20">
         <f t="shared" si="0"/>
-        <v>76.68</v>
+        <v>77.6285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9415,16 +9597,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D14" s="15">
         <v>12018246220</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F14" s="19">
         <v>80</v>
@@ -9441,14 +9623,18 @@
       <c r="J14" s="19">
         <v>95</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="K14" s="19">
+        <v>80</v>
+      </c>
+      <c r="L14" s="19">
+        <v>80</v>
+      </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="20">
         <f t="shared" si="0"/>
-        <v>79.02</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9456,16 +9642,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D15" s="15">
         <v>12018246221</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F15" s="19">
         <v>60</v>
@@ -9482,14 +9668,18 @@
       <c r="J15" s="19">
         <v>95</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="19">
+        <v>80</v>
+      </c>
+      <c r="L15" s="19">
+        <v>60</v>
+      </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="20">
         <f t="shared" si="0"/>
-        <v>72.36</v>
+        <v>71.6857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9497,16 +9687,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D16" s="15">
         <v>12018246222</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F16" s="19">
         <v>70</v>
@@ -9523,14 +9713,18 @@
       <c r="J16" s="19">
         <v>90</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="K16" s="19">
+        <v>80</v>
+      </c>
+      <c r="L16" s="19">
+        <v>80</v>
+      </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="20">
         <f t="shared" si="0"/>
-        <v>72.02</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9538,16 +9732,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D17" s="15">
         <v>12018246223</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F17" s="19">
         <v>70</v>
@@ -9564,14 +9758,18 @@
       <c r="J17" s="19">
         <v>85</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="K17" s="19">
+        <v>60</v>
+      </c>
+      <c r="L17" s="19">
+        <v>80</v>
+      </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="20">
         <f t="shared" si="0"/>
-        <v>75.68</v>
+        <v>74.0571428571428</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9579,10 +9777,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D18" s="15">
         <v>12018246225</v>
@@ -9605,14 +9803,18 @@
       <c r="J18" s="19">
         <v>80</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="19">
+        <v>80</v>
+      </c>
+      <c r="L18" s="19">
+        <v>80</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="20">
         <f t="shared" si="0"/>
-        <v>71.36</v>
+        <v>73.8285714285714</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9620,16 +9822,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D19" s="15">
         <v>12018246227</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F19" s="19">
         <v>70</v>
@@ -9646,14 +9848,18 @@
       <c r="J19" s="19">
         <v>90</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="19">
+        <v>60</v>
+      </c>
+      <c r="L19" s="19">
+        <v>70</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="20">
         <f t="shared" si="0"/>
-        <v>76.68</v>
+        <v>73.3428571428571</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -9661,10 +9867,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D20" s="15">
         <v>12018246232</v>
@@ -9687,14 +9893,18 @@
       <c r="J20" s="19">
         <v>95</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="19">
+        <v>80</v>
+      </c>
+      <c r="L20" s="19">
+        <v>80</v>
+      </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="20">
         <f t="shared" si="0"/>
-        <v>83.02</v>
+        <v>82.1571428571429</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -9702,16 +9912,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D21" s="15">
         <v>12018246233</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F21" s="19">
         <v>80</v>
@@ -9728,14 +9938,18 @@
       <c r="J21" s="19">
         <v>90</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="19">
+        <v>70</v>
+      </c>
+      <c r="L21" s="19">
+        <v>80</v>
+      </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="20">
         <f t="shared" si="0"/>
-        <v>79.34</v>
+        <v>78.1</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -9743,16 +9957,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D22" s="15">
         <v>12018246235</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F22" s="19">
         <v>70</v>
@@ -9769,14 +9983,18 @@
       <c r="J22" s="19">
         <v>80</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="K22" s="19">
+        <v>70</v>
+      </c>
+      <c r="L22" s="19">
+        <v>60</v>
+      </c>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="20">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>68.5714285714286</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9784,16 +10002,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D23" s="15">
         <v>12018246238</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F23" s="19">
         <v>70</v>
@@ -9810,14 +10028,18 @@
       <c r="J23" s="19">
         <v>90</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="K23" s="19">
+        <v>70</v>
+      </c>
+      <c r="L23" s="19">
+        <v>60</v>
+      </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="20">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9825,16 +10047,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D24" s="15">
         <v>12018246241</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F24" s="19">
         <v>60</v>
@@ -9851,14 +10073,18 @@
       <c r="J24" s="19">
         <v>85</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="K24" s="19">
+        <v>80</v>
+      </c>
+      <c r="L24" s="19">
+        <v>70</v>
+      </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="20">
         <f t="shared" si="0"/>
-        <v>71.68</v>
+        <v>72.6285714285714</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9866,16 +10092,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D25" s="15">
         <v>12018246244</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F25" s="19">
         <v>40</v>
@@ -9892,14 +10118,18 @@
       <c r="J25" s="19">
         <v>85</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="K25" s="19">
+        <v>70</v>
+      </c>
+      <c r="L25" s="19">
+        <v>80</v>
+      </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="20">
         <f t="shared" si="0"/>
-        <v>65.68</v>
+        <v>68.3428571428571</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -9907,10 +10137,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D26" s="15">
         <v>12018246252</v>
@@ -9933,14 +10163,18 @@
       <c r="J26" s="19">
         <v>85</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="K26" s="19">
+        <v>90</v>
+      </c>
+      <c r="L26" s="19">
+        <v>80</v>
+      </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="20">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>79.2857142857143</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -9948,16 +10182,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D27" s="15">
         <v>12018246255</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F27" s="19">
         <v>80</v>
@@ -9974,14 +10208,18 @@
       <c r="J27" s="19">
         <v>85</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="K27" s="19">
+        <v>90</v>
+      </c>
+      <c r="L27" s="19">
+        <v>80</v>
+      </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="20">
         <f t="shared" si="0"/>
-        <v>84.34</v>
+        <v>84.5285714285714</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -9989,16 +10227,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D28" s="15">
         <v>12018246257</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F28" s="19">
         <v>70</v>
@@ -10015,14 +10253,18 @@
       <c r="J28" s="19">
         <v>90</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="19">
+        <v>80</v>
+      </c>
+      <c r="L28" s="19">
+        <v>80</v>
+      </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="20">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>67.1428571428571</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -10030,10 +10272,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D29" s="15">
         <v>12018246261</v>
@@ -10056,14 +10298,18 @@
       <c r="J29" s="19">
         <v>90</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="K29" s="19">
+        <v>70</v>
+      </c>
+      <c r="L29" s="19">
+        <v>60</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="20">
         <f t="shared" si="0"/>
-        <v>85.34</v>
+        <v>79.5285714285714</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -10071,16 +10317,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D30" s="15">
         <v>12018246262</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F30" s="19">
         <v>80</v>
@@ -10097,14 +10343,18 @@
       <c r="J30" s="19">
         <v>95</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="K30" s="19">
+        <v>80</v>
+      </c>
+      <c r="L30" s="19">
+        <v>80</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="20">
         <f t="shared" si="0"/>
-        <v>79.02</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -10112,16 +10362,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D31" s="15">
         <v>12018246263</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F31" s="19">
         <v>90</v>
@@ -10138,14 +10388,18 @@
       <c r="J31" s="19">
         <v>90</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="K31" s="19">
+        <v>80</v>
+      </c>
+      <c r="L31" s="19">
+        <v>80</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="20">
         <f t="shared" si="0"/>
-        <v>81.34</v>
+        <v>80.9571428571429</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -10153,16 +10407,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D32" s="15">
         <v>12018246265</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F32" s="19">
         <v>70</v>
@@ -10179,14 +10433,18 @@
       <c r="J32" s="19">
         <v>90</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="K32" s="19">
+        <v>70</v>
+      </c>
+      <c r="L32" s="19">
+        <v>70</v>
+      </c>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="20">
         <f t="shared" si="0"/>
-        <v>82.02</v>
+        <v>78.5857142857143</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -10194,16 +10452,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D33" s="15">
         <v>12018246267</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F33" s="19">
         <v>60</v>
@@ -10220,14 +10478,18 @@
       <c r="J33" s="19">
         <v>95</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="K33" s="19">
+        <v>70</v>
+      </c>
+      <c r="L33" s="19">
+        <v>80</v>
+      </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="20">
         <f t="shared" si="0"/>
-        <v>82.36</v>
+        <v>80.2571428571429</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -10235,16 +10497,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D34" s="15">
         <v>12018246268</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F34" s="19">
         <v>70</v>
@@ -10261,14 +10523,18 @@
       <c r="J34" s="19">
         <v>90</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="K34" s="19">
+        <v>70</v>
+      </c>
+      <c r="L34" s="19">
+        <v>60</v>
+      </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="20">
         <f t="shared" si="0"/>
-        <v>81.34</v>
+        <v>76.6714285714286</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -10276,16 +10542,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D35" s="15">
         <v>12018246269</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F35" s="19">
         <v>70</v>
@@ -10302,14 +10568,18 @@
       <c r="J35" s="19">
         <v>85</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="K35" s="19">
+        <v>80</v>
+      </c>
+      <c r="L35" s="19">
+        <v>60</v>
+      </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="20">
         <f t="shared" si="0"/>
-        <v>72.36</v>
+        <v>71.6857142857143</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -10317,16 +10587,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D36" s="15">
         <v>12018245934</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F36" s="19">
         <v>70</v>
@@ -10343,14 +10613,18 @@
       <c r="J36" s="19">
         <v>75</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="K36" s="19">
+        <v>80</v>
+      </c>
+      <c r="L36" s="19">
+        <v>80</v>
+      </c>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="20">
         <f t="shared" si="0"/>
-        <v>74.34</v>
+        <v>75.9571428571429</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -10358,16 +10632,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D37" s="15">
         <v>12018245921</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F37" s="19">
         <v>70</v>
@@ -10384,14 +10658,18 @@
       <c r="J37" s="19">
         <v>80</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="K37" s="19">
+        <v>80</v>
+      </c>
+      <c r="L37" s="19">
+        <v>60</v>
+      </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="20">
         <f t="shared" si="0"/>
-        <v>74.68</v>
+        <v>73.3428571428571</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -10399,16 +10677,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D38" s="15">
         <v>12018245948</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F38" s="19">
         <v>70</v>
@@ -10425,14 +10703,18 @@
       <c r="J38" s="19">
         <v>90</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
+      <c r="K38" s="19">
+        <v>70</v>
+      </c>
+      <c r="L38" s="19">
+        <v>60</v>
+      </c>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="20">
         <f t="shared" si="0"/>
-        <v>78.68</v>
+        <v>74.7714285714286</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -10440,16 +10722,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D39" s="15">
         <v>12018245917</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F39" s="19">
         <v>70</v>
@@ -10466,14 +10748,18 @@
       <c r="J39" s="19">
         <v>80</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
+      <c r="K39" s="19">
+        <v>80</v>
+      </c>
+      <c r="L39" s="19">
+        <v>60</v>
+      </c>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="20">
         <f t="shared" si="0"/>
-        <v>76.68</v>
+        <v>74.7714285714286</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -10481,16 +10767,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D40" s="15">
         <v>12017246001</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F40" s="19">
         <v>60</v>
@@ -10507,14 +10793,18 @@
       <c r="J40" s="19">
         <v>85</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
+      <c r="K40" s="19">
+        <v>80</v>
+      </c>
+      <c r="L40" s="19">
+        <v>80</v>
+      </c>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
       <c r="P40" s="20">
         <f t="shared" ref="P40:P41" si="1">AVERAGE(F40:O40)</f>
-        <v>73.68</v>
+        <v>75.4857142857143</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -10522,16 +10812,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D41" s="15">
         <v>12017246053</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F41" s="19">
         <v>50</v>
@@ -10548,14 +10838,18 @@
       <c r="J41" s="19">
         <v>85</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="K41" s="19">
+        <v>80</v>
+      </c>
+      <c r="L41" s="19">
+        <v>80</v>
+      </c>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
       <c r="P41" s="20">
         <f t="shared" si="1"/>
-        <v>68.36</v>
+        <v>71.6857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -10576,9 +10870,9 @@
     <mergeCell ref="P2:P3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4 G4 H4:O4 F5 G5 H5:I5 K5:O5 F6:I6 K6:O6 F7 G7 H7:I7 K7:O7 F8 G8 H8:I8 K8:O8 F9 G9 H9:I9 K9:O9 F10 G10 H10:I10 K10:O10 F11 G11 H11:I11 K11:O11 F12 G12 H12:I12 K12:O12 F15 H15:I15 K15:O15 F16 H16:I16 K16:O16 F19 H19:I19 K19:O19 F20 H20:I20 K20:O20 F28:I28 K28:O28 F29 G29 H29:I29 K29:O29 F30:I30 K30:O30 F31 G31 H31:I31 K31:O31 F32:I32 K32:O32 L39 L41 F17:F18 F21:F23 F24:F27 G15:G16 G17:G18 G19:G21 G22:G27 G33:G40 J5:J41 L33:L37 F13:I14 K13:O14 K17:O18 H17:I18 H21:I23 K21:O23 H24:I27 K24:O27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4 G4 H4:J4 K4 M4:O4 F5 G5 H5:I5 M5:O5 F6:I6 M6:O6 F7 G7 H7:I7 M7:O7 F8 G8 H8:I8 M8:O8 F9 G9 H9:I9 M9:O9 F10 G10 H10:I10 M10:O10 F11 G11 H11:I11 M11:O11 F12 G12 H12:I12 M12:O12 F15 H15:I15 M15:O15 F16 H16:I16 M16:O16 F19 H19:I19 M19:O19 F20 H20:I20 M20:O20 F28:I28 M28:O28 F29 G29 H29:I29 M29:O29 F30:I30 M30:O30 F31 G31 H31:I31 M31:O31 F32:I32 M32:O32 F17:F18 F21:F23 F24:F27 G15:G16 G17:G18 G19:G21 G22:G27 G33:G40 J5:J41 K5:K41 L4:L41 F13:I14 H17:I18 H21:I23 H24:I27 M13:O14 M17:O18 M21:O23 M24:O27"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:H3 I3:L3 M3:O3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -10591,25 +10885,25 @@
   <sheetPr/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="9" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5545454545455" customWidth="1"/>
-    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5545454545455" customWidth="1"/>
-    <col min="13" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="9" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5555555555556" customWidth="1"/>
+    <col min="13" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10727,16 +11021,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F4" s="16">
         <v>70</v>
@@ -10768,16 +11062,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F5" s="16">
         <v>60</v>
@@ -10809,19 +11103,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -10842,16 +11136,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F7" s="16">
         <v>70</v>
@@ -10883,16 +11177,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F8" s="16">
         <v>60</v>
@@ -10924,16 +11218,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F9" s="16">
         <v>80</v>
@@ -10965,16 +11259,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F10" s="16">
         <v>80</v>
@@ -11006,16 +11300,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F11" s="16">
         <v>80</v>
@@ -11047,16 +11341,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F12" s="16">
         <v>60</v>
@@ -11088,16 +11382,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F13" s="16">
         <v>80</v>
@@ -11129,13 +11423,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>50</v>
@@ -11170,16 +11464,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F15" s="16">
         <v>70</v>
@@ -11211,16 +11505,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F16" s="16">
         <v>80</v>
@@ -11252,16 +11546,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F17" s="16">
         <v>70</v>
@@ -11293,16 +11587,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F18" s="16">
         <v>80</v>
@@ -11334,13 +11628,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>64</v>
@@ -11375,16 +11669,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F20" s="16">
         <v>80</v>
@@ -11416,16 +11710,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F21" s="16">
         <v>80</v>
@@ -11457,16 +11751,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F22" s="16">
         <v>70</v>
@@ -11498,16 +11792,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F23" s="16">
         <v>70</v>
@@ -11539,16 +11833,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F24" s="16">
         <v>60</v>
@@ -11580,13 +11874,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>80</v>
@@ -11621,16 +11915,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F26" s="16">
         <v>70</v>
@@ -11662,16 +11956,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F27" s="16">
         <v>80</v>
@@ -11703,16 +11997,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F28" s="16">
         <v>70</v>
@@ -11744,16 +12038,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F29" s="16">
         <v>60</v>
@@ -11785,16 +12079,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F30" s="16">
         <v>80</v>
@@ -11826,16 +12120,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F31" s="16">
         <v>80</v>
@@ -11867,16 +12161,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F32" s="16">
         <v>80</v>
@@ -11908,16 +12202,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F33" s="16">
         <v>80</v>
@@ -11949,16 +12243,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F34" s="16">
         <v>60</v>
@@ -11990,16 +12284,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F35" s="16">
         <v>60</v>
@@ -12031,16 +12325,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D36" s="15">
         <v>12018243770</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F36" s="16">
         <v>70</v>
@@ -12072,10 +12366,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D37" s="15">
         <v>12018246571</v>
@@ -12113,19 +12407,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D38" s="15">
         <v>12018245904</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -12146,16 +12440,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D39" s="15">
         <v>12018246563</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F39" s="16">
         <v>80</v>

--- a/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8820" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="8250" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -1439,10 +1439,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
@@ -1484,8 +1484,62 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1505,24 +1559,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,30 +1583,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,20 +1606,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1589,41 +1620,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1678,7 +1678,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1774,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,13 +1810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,139 +1846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,6 +1907,78 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1932,88 +2004,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2022,136 +2022,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2548,28 +2548,28 @@
   <sheetPr/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O35" sqref="O23:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" customWidth="1"/>
-    <col min="7" max="8" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="24.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="16.1090909090909" customWidth="1"/>
+    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="11.1090909090909" customWidth="1"/>
+    <col min="7" max="8" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.1090909090909" customWidth="1"/>
+    <col min="10" max="10" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.1090909090909" customWidth="1"/>
+    <col min="14" max="14" width="11.1090909090909" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" ht="15.6" spans="1:16">
+    <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:16">
+    <row r="5" ht="16.5" spans="1:16">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:16">
+    <row r="6" ht="16.5" spans="1:16">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:16">
+    <row r="7" ht="16.5" spans="1:16">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:16">
+    <row r="8" ht="16.5" spans="1:16">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:16">
+    <row r="9" ht="16.5" spans="1:16">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:16">
+    <row r="10" ht="16.5" spans="1:16">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:16">
+    <row r="11" ht="16.5" spans="1:16">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>86.01</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:16">
+    <row r="12" ht="16.5" spans="1:16">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:16">
+    <row r="13" ht="16.5" spans="1:16">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:16">
+    <row r="14" ht="16.5" spans="1:16">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>88.68</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:16">
+    <row r="15" ht="16.5" spans="1:16">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:16">
+    <row r="16" ht="16.5" spans="1:16">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:16">
+    <row r="17" ht="16.5" spans="1:16">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:16">
+    <row r="18" ht="16.5" spans="1:16">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:16">
+    <row r="19" ht="16.5" spans="1:16">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>86.67</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:16">
+    <row r="20" ht="16.5" spans="1:16">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:16">
+    <row r="21" ht="16.5" spans="1:16">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:16">
+    <row r="22" ht="16.5" spans="1:16">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:16">
+    <row r="23" ht="16.5" spans="1:16">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:16">
+    <row r="24" ht="16.5" spans="1:16">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:16">
+    <row r="25" ht="16.5" spans="1:16">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:16">
+    <row r="26" ht="16.5" spans="1:16">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:16">
+    <row r="27" ht="16.5" spans="1:16">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:16">
+    <row r="28" ht="16.5" spans="1:16">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:16">
+    <row r="29" ht="16.5" spans="1:16">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:16">
+    <row r="30" ht="16.5" spans="1:16">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:16">
+    <row r="31" ht="16.5" spans="1:16">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:16">
+    <row r="32" ht="16.5" spans="1:16">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:16">
+    <row r="33" ht="16.5" spans="1:16">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:16">
+    <row r="34" ht="16.5" spans="1:16">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:16">
+    <row r="35" ht="16.5" spans="1:16">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:16">
+    <row r="36" ht="16.5" spans="1:16">
       <c r="A36" s="13">
         <v>33</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:16">
+    <row r="37" ht="16.5" spans="1:16">
       <c r="A37" s="13">
         <v>34</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:16">
+    <row r="38" ht="16.5" spans="1:16">
       <c r="A38" s="13">
         <v>35</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:16">
+    <row r="39" ht="16.5" spans="1:16">
       <c r="A39" s="13">
         <v>36</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:16">
+    <row r="40" ht="16.5" spans="1:16">
       <c r="A40" s="13">
         <v>37</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:16">
+    <row r="41" ht="16.5" spans="1:16">
       <c r="A41" s="13">
         <v>38</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="1:16">
+    <row r="42" ht="16.5" spans="1:16">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:16">
+    <row r="43" ht="16.5" spans="1:16">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:16">
+    <row r="44" ht="16.5" spans="1:16">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:16">
+    <row r="45" ht="16.5" spans="1:16">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:16">
+    <row r="46" ht="16.5" spans="1:16">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -4888,25 +4888,25 @@
   <sheetPr/>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
-    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
-    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="17.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
+    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
+    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7096,21 +7096,21 @@
       <selection activeCell="F3" sqref="F3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
+    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
-    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
-    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
+    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
+    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -9011,25 +9011,25 @@
   <sheetPr/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
-    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
-    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
+    <col min="2" max="2" width="18.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
+    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
+    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10885,25 +10885,25 @@
   <sheetPr/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
-    <col min="7" max="9" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5555555555556" customWidth="1"/>
-    <col min="13" max="15" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
+    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
+    <col min="7" max="9" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5545454545455" customWidth="1"/>
+    <col min="13" max="15" width="9.89090909090909" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11047,14 +11047,23 @@
       <c r="J4" s="16">
         <v>60</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="K4" s="16">
+        <v>90</v>
+      </c>
+      <c r="L4" s="16">
+        <v>80</v>
+      </c>
+      <c r="M4" s="16">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N4" s="16">
+        <v>90</v>
+      </c>
+      <c r="O4" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P4" s="18">
-        <f>AVERAGE(F4:O4)</f>
-        <v>66.668</v>
+        <v>72.6673333333333</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -11088,14 +11097,23 @@
       <c r="J5" s="16">
         <v>90</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="K5" s="16">
+        <v>80</v>
+      </c>
+      <c r="L5" s="16">
+        <v>60</v>
+      </c>
+      <c r="M5" s="16">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N5" s="16">
+        <v>90</v>
+      </c>
+      <c r="O5" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P5" s="18">
-        <f t="shared" ref="P5:P39" si="0">AVERAGE(F5:O5)</f>
-        <v>74.668</v>
+        <v>73.6673333333333</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -11127,7 +11145,6 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="18" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11162,14 +11179,23 @@
       <c r="J7" s="16">
         <v>60</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="K7" s="16">
+        <v>90</v>
+      </c>
+      <c r="L7" s="16">
+        <v>60</v>
+      </c>
+      <c r="M7" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N7" s="16">
+        <v>90</v>
+      </c>
+      <c r="O7" s="16">
+        <v>90</v>
+      </c>
       <c r="P7" s="18">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70.3333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -11203,14 +11229,23 @@
       <c r="J8" s="16">
         <v>80</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="K8" s="16">
+        <v>70</v>
+      </c>
+      <c r="L8" s="16">
+        <v>60</v>
+      </c>
+      <c r="M8" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N8" s="16">
+        <v>90</v>
+      </c>
+      <c r="O8" s="16">
+        <v>90</v>
+      </c>
       <c r="P8" s="18">
-        <f t="shared" si="0"/>
-        <v>72.668</v>
+        <v>72.6673333333333</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -11244,14 +11279,23 @@
       <c r="J9" s="16">
         <v>95</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="K9" s="16">
+        <v>80</v>
+      </c>
+      <c r="L9" s="16">
+        <v>60</v>
+      </c>
+      <c r="M9" s="16">
+        <v>100</v>
+      </c>
+      <c r="N9" s="16">
+        <v>90</v>
+      </c>
+      <c r="O9" s="16">
+        <v>90</v>
+      </c>
       <c r="P9" s="18">
-        <f t="shared" si="0"/>
-        <v>81</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -11285,14 +11329,23 @@
       <c r="J10" s="16">
         <v>100</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="K10" s="16">
+        <v>80</v>
+      </c>
+      <c r="L10" s="16">
+        <v>60</v>
+      </c>
+      <c r="M10" s="16">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N10" s="16">
+        <v>90</v>
+      </c>
+      <c r="O10" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P10" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>76.3333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -11326,14 +11379,23 @@
       <c r="J11" s="16">
         <v>70</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="K11" s="16">
+        <v>50</v>
+      </c>
+      <c r="L11" s="16">
+        <v>80</v>
+      </c>
+      <c r="M11" s="16">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N11" s="16">
+        <v>100</v>
+      </c>
+      <c r="O11" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P11" s="18">
-        <f t="shared" si="0"/>
-        <v>73.334</v>
+        <v>73.667</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -11367,14 +11429,23 @@
       <c r="J12" s="16">
         <v>100</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="K12" s="16">
+        <v>80</v>
+      </c>
+      <c r="L12" s="16">
+        <v>60</v>
+      </c>
+      <c r="M12" s="16">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N12" s="16">
+        <v>80</v>
+      </c>
+      <c r="O12" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P12" s="18">
-        <f t="shared" si="0"/>
-        <v>71.334</v>
+        <v>71.0003333333333</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -11408,14 +11479,23 @@
       <c r="J13" s="16">
         <v>100</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="K13" s="16">
+        <v>80</v>
+      </c>
+      <c r="L13" s="16">
+        <v>60</v>
+      </c>
+      <c r="M13" s="16">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N13" s="16">
+        <v>90</v>
+      </c>
+      <c r="O13" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P13" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>76.3333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -11449,14 +11529,23 @@
       <c r="J14" s="16">
         <v>60</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="K14" s="16">
+        <v>70</v>
+      </c>
+      <c r="L14" s="16">
+        <v>60</v>
+      </c>
+      <c r="M14" s="16">
+        <v>100</v>
+      </c>
+      <c r="N14" s="16">
+        <v>90</v>
+      </c>
+      <c r="O14" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P14" s="18">
-        <f t="shared" si="0"/>
-        <v>60.666</v>
+        <v>70.9996666666667</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -11490,14 +11579,23 @@
       <c r="J15" s="16">
         <v>100</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="K15" s="16">
+        <v>80</v>
+      </c>
+      <c r="L15" s="16">
+        <v>60</v>
+      </c>
+      <c r="M15" s="16">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N15" s="16">
+        <v>90</v>
+      </c>
+      <c r="O15" s="16">
+        <v>90</v>
+      </c>
       <c r="P15" s="18">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <v>74.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -11531,14 +11629,23 @@
       <c r="J16" s="16">
         <v>90</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="K16" s="16">
+        <v>80</v>
+      </c>
+      <c r="L16" s="16">
+        <v>60</v>
+      </c>
+      <c r="M16" s="16">
+        <v>100</v>
+      </c>
+      <c r="N16" s="16">
+        <v>90</v>
+      </c>
+      <c r="O16" s="16">
+        <v>80</v>
+      </c>
       <c r="P16" s="18">
-        <f t="shared" si="0"/>
-        <v>70.666</v>
+        <v>76.333</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -11572,14 +11679,23 @@
       <c r="J17" s="16">
         <v>100</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="K17" s="16">
+        <v>80</v>
+      </c>
+      <c r="L17" s="16">
+        <v>60</v>
+      </c>
+      <c r="M17" s="16">
+        <v>100</v>
+      </c>
+      <c r="N17" s="16">
+        <v>90</v>
+      </c>
+      <c r="O17" s="16">
+        <v>80</v>
+      </c>
       <c r="P17" s="18">
-        <f t="shared" si="0"/>
-        <v>78.666</v>
+        <v>80.333</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -11613,14 +11729,23 @@
       <c r="J18" s="16">
         <v>85</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="K18" s="16">
+        <v>70</v>
+      </c>
+      <c r="L18" s="16">
+        <v>100</v>
+      </c>
+      <c r="M18" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N18" s="16">
+        <v>90</v>
+      </c>
+      <c r="O18" s="16">
+        <v>90</v>
+      </c>
       <c r="P18" s="18">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78.1666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -11654,14 +11779,23 @@
       <c r="J19" s="16">
         <v>100</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="K19" s="16">
+        <v>80</v>
+      </c>
+      <c r="L19" s="16">
+        <v>100</v>
+      </c>
+      <c r="M19" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N19" s="16">
+        <v>90</v>
+      </c>
+      <c r="O19" s="16">
+        <v>90</v>
+      </c>
       <c r="P19" s="18">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>78.6666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -11695,14 +11829,23 @@
       <c r="J20" s="16">
         <v>65</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="K20" s="16">
+        <v>80</v>
+      </c>
+      <c r="L20" s="16">
+        <v>60</v>
+      </c>
+      <c r="M20" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N20" s="16">
+        <v>90</v>
+      </c>
+      <c r="O20" s="16">
+        <v>90</v>
+      </c>
       <c r="P20" s="18">
-        <f t="shared" si="0"/>
-        <v>76.334</v>
+        <v>74.8336666666667</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -11736,14 +11879,23 @@
       <c r="J21" s="16">
         <v>100</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="K21" s="16">
+        <v>80</v>
+      </c>
+      <c r="L21" s="16">
+        <v>60</v>
+      </c>
+      <c r="M21" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N21" s="16">
+        <v>80</v>
+      </c>
+      <c r="O21" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P21" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75.3333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -11777,14 +11929,23 @@
       <c r="J22" s="16">
         <v>95</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="K22" s="16">
+        <v>80</v>
+      </c>
+      <c r="L22" s="16">
+        <v>60</v>
+      </c>
+      <c r="M22" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N22" s="16">
+        <v>90</v>
+      </c>
+      <c r="O22" s="16">
+        <v>80</v>
+      </c>
       <c r="P22" s="18">
-        <f t="shared" si="0"/>
-        <v>75.666</v>
+        <v>73.4996666666667</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -11818,14 +11979,23 @@
       <c r="J23" s="16">
         <v>80</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="K23" s="16">
+        <v>90</v>
+      </c>
+      <c r="L23" s="16">
+        <v>60</v>
+      </c>
+      <c r="M23" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N23" s="16">
+        <v>90</v>
+      </c>
+      <c r="O23" s="16">
+        <v>90</v>
+      </c>
       <c r="P23" s="18">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <v>71.3333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -11859,14 +12029,23 @@
       <c r="J24" s="16">
         <v>100</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="K24" s="16">
+        <v>80</v>
+      </c>
+      <c r="L24" s="16">
+        <v>60</v>
+      </c>
+      <c r="M24" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N24" s="16">
+        <v>90</v>
+      </c>
+      <c r="O24" s="16">
+        <v>90</v>
+      </c>
       <c r="P24" s="18">
-        <f t="shared" si="0"/>
-        <v>79.334</v>
+        <v>76.3336666666667</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -11900,14 +12079,23 @@
       <c r="J25" s="16">
         <v>90</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="K25" s="16">
+        <v>80</v>
+      </c>
+      <c r="L25" s="16">
+        <v>60</v>
+      </c>
+      <c r="M25" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N25" s="16">
+        <v>90</v>
+      </c>
+      <c r="O25" s="16">
+        <v>90</v>
+      </c>
       <c r="P25" s="18">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <v>72.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -11941,14 +12129,23 @@
       <c r="J26" s="16">
         <v>100</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="K26" s="16">
+        <v>70</v>
+      </c>
+      <c r="L26" s="16">
+        <v>60</v>
+      </c>
+      <c r="M26" s="16">
+        <v>100</v>
+      </c>
+      <c r="N26" s="16">
+        <v>80</v>
+      </c>
+      <c r="O26" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P26" s="18">
-        <f t="shared" si="0"/>
-        <v>77.334</v>
+        <v>78.3336666666667</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -11982,14 +12179,23 @@
       <c r="J27" s="16">
         <v>100</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="K27" s="16">
+        <v>80</v>
+      </c>
+      <c r="L27" s="16">
+        <v>60</v>
+      </c>
+      <c r="M27" s="16">
+        <v>100</v>
+      </c>
+      <c r="N27" s="16">
+        <v>90</v>
+      </c>
+      <c r="O27" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P27" s="18">
-        <f t="shared" si="0"/>
-        <v>83.334</v>
+        <v>83.3336666666667</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -12023,14 +12229,23 @@
       <c r="J28" s="16">
         <v>90</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="K28" s="16">
+        <v>80</v>
+      </c>
+      <c r="L28" s="16">
+        <v>60</v>
+      </c>
+      <c r="M28" s="16">
+        <v>100</v>
+      </c>
+      <c r="N28" s="16">
+        <v>90</v>
+      </c>
+      <c r="O28" s="16">
+        <v>80</v>
+      </c>
       <c r="P28" s="18">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -12064,13 +12279,22 @@
       <c r="J29" s="16">
         <v>100</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="K29" s="16">
+        <v>80</v>
+      </c>
+      <c r="L29" s="16">
+        <v>60</v>
+      </c>
+      <c r="M29" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N29" s="16">
+        <v>90</v>
+      </c>
+      <c r="O29" s="16">
+        <v>93.3333333333333</v>
+      </c>
       <c r="P29" s="18">
-        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -12105,14 +12329,23 @@
       <c r="J30" s="16">
         <v>100</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="K30" s="16">
+        <v>80</v>
+      </c>
+      <c r="L30" s="16">
+        <v>60</v>
+      </c>
+      <c r="M30" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N30" s="16">
+        <v>90</v>
+      </c>
+      <c r="O30" s="16">
+        <v>93.3333333333333</v>
+      </c>
       <c r="P30" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -12146,14 +12379,23 @@
       <c r="J31" s="16">
         <v>90</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="K31" s="16">
+        <v>80</v>
+      </c>
+      <c r="L31" s="16">
+        <v>60</v>
+      </c>
+      <c r="M31" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N31" s="16">
+        <v>90</v>
+      </c>
+      <c r="O31" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P31" s="18">
-        <f t="shared" si="0"/>
-        <v>71.332</v>
+        <v>71.9993333333333</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -12187,14 +12429,23 @@
       <c r="J32" s="16">
         <v>90</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="K32" s="16">
+        <v>80</v>
+      </c>
+      <c r="L32" s="16">
+        <v>60</v>
+      </c>
+      <c r="M32" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N32" s="16">
+        <v>80</v>
+      </c>
+      <c r="O32" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P32" s="18">
-        <f t="shared" si="0"/>
-        <v>81.334</v>
+        <v>76.0003333333333</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -12228,14 +12479,23 @@
       <c r="J33" s="16">
         <v>100</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="K33" s="16">
+        <v>80</v>
+      </c>
+      <c r="L33" s="16">
+        <v>60</v>
+      </c>
+      <c r="M33" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N33" s="16">
+        <v>90</v>
+      </c>
+      <c r="O33" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P33" s="18">
-        <f t="shared" si="0"/>
-        <v>83.334</v>
+        <v>78.0003333333333</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -12269,14 +12529,23 @@
       <c r="J34" s="16">
         <v>100</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="K34" s="16">
+        <v>80</v>
+      </c>
+      <c r="L34" s="16">
+        <v>100</v>
+      </c>
+      <c r="M34" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N34" s="16">
+        <v>90</v>
+      </c>
+      <c r="O34" s="16">
+        <v>100</v>
+      </c>
       <c r="P34" s="18">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>79.6666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -12310,14 +12579,23 @@
       <c r="J35" s="16">
         <v>100</v>
       </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+      <c r="K35" s="16">
+        <v>80</v>
+      </c>
+      <c r="L35" s="16">
+        <v>100</v>
+      </c>
+      <c r="M35" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N35" s="16">
+        <v>90</v>
+      </c>
+      <c r="O35" s="16">
+        <v>93.3333333333333</v>
+      </c>
       <c r="P35" s="18">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -12351,14 +12629,23 @@
       <c r="J36" s="16">
         <v>65</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="K36" s="16">
+        <v>80</v>
+      </c>
+      <c r="L36" s="16">
+        <v>80</v>
+      </c>
+      <c r="M36" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N36" s="16">
+        <v>90</v>
+      </c>
+      <c r="O36" s="16">
+        <v>93.3333333333333</v>
+      </c>
       <c r="P36" s="18">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -12392,14 +12679,23 @@
       <c r="J37" s="16">
         <v>100</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="K37" s="16">
+        <v>80</v>
+      </c>
+      <c r="L37" s="16">
+        <v>60</v>
+      </c>
+      <c r="M37" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N37" s="16">
+        <v>90</v>
+      </c>
+      <c r="O37" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P37" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>76.3333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -12431,7 +12727,6 @@
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="18" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12466,14 +12761,23 @@
       <c r="J39" s="16">
         <v>100</v>
       </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+      <c r="K39" s="16">
+        <v>80</v>
+      </c>
+      <c r="L39" s="16">
+        <v>60</v>
+      </c>
+      <c r="M39" s="16">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="N39" s="16">
+        <v>90</v>
+      </c>
+      <c r="O39" s="16">
+        <v>86.6666666666667</v>
+      </c>
       <c r="P39" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>76.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -12494,7 +12798,7 @@
     <mergeCell ref="P2:P3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="I39 O39 I33:I37 O33:O37 F4:O32"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F6:O6 F9:O9 F14:O14 F15:L15 M15 N15:O15 I39 M39 O39 I33:I37 M4:M5 M7:M8 M10:M13 M18:M25 M29:M37 O33:O37 F29:L32 N29:O32 F18:L25 N18:O25 F26:O28 F16:O17 F10:L13 N10:O13 F4:L5 N4:O5 F7:L8 N7:O8"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
   </dataValidations>

--- a/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_ZW_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8250" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9564" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -1439,10 +1439,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
@@ -1484,22 +1484,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1507,17 +1491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,11 +1505,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1546,14 +1528,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,8 +1549,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,26 +1587,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1620,8 +1619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,7 +1678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,7 +1714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,13 +1726,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,121 +1840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,39 +1907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1964,6 +1931,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1979,17 +1976,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2010,10 +2010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2022,136 +2022,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2552,24 +2552,24 @@
       <selection activeCell="O35" sqref="O23:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
-    <col min="2" max="2" width="24.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.1090909090909" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.1090909090909" customWidth="1"/>
-    <col min="7" max="8" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1090909090909" customWidth="1"/>
-    <col min="10" max="10" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.1090909090909" customWidth="1"/>
-    <col min="14" max="14" width="11.1090909090909" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" customWidth="1"/>
+    <col min="7" max="8" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:16">
+    <row r="4" ht="15.6" spans="1:16">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:16">
+    <row r="5" ht="15.6" spans="1:16">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" ht="15.6" spans="1:16">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:16">
+    <row r="7" ht="15.6" spans="1:16">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:16">
+    <row r="8" ht="15.6" spans="1:16">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
+    <row r="9" ht="15.6" spans="1:16">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:16">
+    <row r="10" ht="15.6" spans="1:16">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:16">
+    <row r="11" ht="15.6" spans="1:16">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>86.01</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
+    <row r="12" ht="15.6" spans="1:16">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:16">
+    <row r="13" ht="15.6" spans="1:16">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
+    <row r="14" ht="15.6" spans="1:16">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>88.68</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:16">
+    <row r="15" ht="15.6" spans="1:16">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:16">
+    <row r="16" ht="15.6" spans="1:16">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:16">
+    <row r="17" ht="15.6" spans="1:16">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:16">
+    <row r="18" ht="15.6" spans="1:16">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:16">
+    <row r="19" ht="15.6" spans="1:16">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>86.67</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:16">
+    <row r="20" ht="15.6" spans="1:16">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:16">
+    <row r="21" ht="15.6" spans="1:16">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:16">
+    <row r="22" ht="15.6" spans="1:16">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:16">
+    <row r="23" ht="15.6" spans="1:16">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:16">
+    <row r="24" ht="15.6" spans="1:16">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:16">
+    <row r="25" ht="15.6" spans="1:16">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:16">
+    <row r="26" ht="15.6" spans="1:16">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:16">
+    <row r="27" ht="15.6" spans="1:16">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:16">
+    <row r="28" ht="15.6" spans="1:16">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:16">
+    <row r="29" ht="15.6" spans="1:16">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:16">
+    <row r="30" ht="15.6" spans="1:16">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:16">
+    <row r="31" ht="15.6" spans="1:16">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:16">
+    <row r="32" ht="15.6" spans="1:16">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:16">
+    <row r="33" ht="15.6" spans="1:16">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:16">
+    <row r="34" ht="15.6" spans="1:16">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:16">
+    <row r="35" ht="15.6" spans="1:16">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:16">
+    <row r="36" ht="15.6" spans="1:16">
       <c r="A36" s="13">
         <v>33</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:16">
+    <row r="37" ht="15.6" spans="1:16">
       <c r="A37" s="13">
         <v>34</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:16">
+    <row r="38" ht="15.6" spans="1:16">
       <c r="A38" s="13">
         <v>35</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:16">
+    <row r="39" ht="15.6" spans="1:16">
       <c r="A39" s="13">
         <v>36</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:16">
+    <row r="40" ht="15.6" spans="1:16">
       <c r="A40" s="13">
         <v>37</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:16">
+    <row r="41" ht="15.6" spans="1:16">
       <c r="A41" s="13">
         <v>38</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:16">
+    <row r="42" ht="15.6" spans="1:16">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:16">
+    <row r="43" ht="15.6" spans="1:16">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:16">
+    <row r="44" ht="15.6" spans="1:16">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:16">
+    <row r="45" ht="15.6" spans="1:16">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:16">
+    <row r="46" ht="15.6" spans="1:16">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -4892,21 +4892,21 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="17.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
-    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
-    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
+    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7096,21 +7096,21 @@
       <selection activeCell="F3" sqref="F3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44545454545455" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
-    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
-    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
+    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -9011,25 +9011,25 @@
   <sheetPr/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="18.3363636363636" customWidth="1"/>
-    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="8" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5545454545455" customWidth="1"/>
-    <col min="10" max="12" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5545454545455" customWidth="1"/>
-    <col min="14" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="8" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="10" max="12" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
+    <col min="14" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10245,7 +10245,7 @@
         <v>80</v>
       </c>
       <c r="H28" s="19">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I28" s="19">
         <v>70</v>
@@ -10264,7 +10264,7 @@
       <c r="O28" s="19"/>
       <c r="P28" s="20">
         <f t="shared" si="0"/>
-        <v>67.1428571428571</v>
+        <v>76.2857142857143</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -10885,25 +10885,25 @@
   <sheetPr/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="16.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4454545454545" customWidth="1"/>
-    <col min="6" max="6" width="10.5545454545455" customWidth="1"/>
-    <col min="7" max="9" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5545454545455" customWidth="1"/>
-    <col min="11" max="11" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5545454545455" customWidth="1"/>
-    <col min="13" max="15" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="9" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5555555555556" customWidth="1"/>
+    <col min="13" max="15" width="9.88888888888889" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4454545454545" customWidth="1"/>
+    <col min="27" max="27" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
